--- a/設計書/02_基本設計（外部設計）/画面設計/DM001_ユーザ一覧画面.xlsx
+++ b/設計書/02_基本設計（外部設計）/画面設計/DM001_ユーザ一覧画面.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="210" yWindow="1335" windowWidth="23715" windowHeight="9480"/>
@@ -3402,6 +3401,24 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3419,132 +3436,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3581,6 +3472,114 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3624,25 +3623,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3681,20 +3668,38 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3734,12 +3739,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6309,201 +6308,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="231" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="206" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="206"/>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="208" t="str">
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="228" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="206" t="s">
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="206"/>
-      <c r="AJ1" s="206"/>
-      <c r="AK1" s="206"/>
-      <c r="AL1" s="206"/>
-      <c r="AM1" s="206" t="s">
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="206"/>
-      <c r="AO1" s="206"/>
-      <c r="AP1" s="206"/>
-      <c r="AQ1" s="206"/>
-      <c r="AR1" s="206"/>
-      <c r="AS1" s="206" t="s">
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="206"/>
-      <c r="AU1" s="206"/>
-      <c r="AV1" s="206"/>
-      <c r="AW1" s="206"/>
-      <c r="AX1" s="206" t="s">
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="206"/>
-      <c r="AZ1" s="209"/>
+      <c r="AY1" s="229"/>
+      <c r="AZ1" s="230"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="207" t="s">
+      <c r="A2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="210" t="str">
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="220" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="211">
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221">
         <v>42591</v>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
+      <c r="AM2" s="223" t="s">
         <v>223</v>
       </c>
-      <c r="AN2" s="210"/>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="210"/>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="216"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="210"/>
-      <c r="AZ2" s="214"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="220"/>
+      <c r="AR2" s="220"/>
+      <c r="AS2" s="226"/>
+      <c r="AT2" s="226"/>
+      <c r="AU2" s="226"/>
+      <c r="AV2" s="226"/>
+      <c r="AW2" s="226"/>
+      <c r="AX2" s="220"/>
+      <c r="AY2" s="220"/>
+      <c r="AZ2" s="224"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="192" t="s">
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="193" t="str">
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="219" t="str">
         <f>設定情報!$C$5</f>
         <v>ユーザ一覧画面</v>
       </c>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="212"/>
-      <c r="AK3" s="212"/>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="193"/>
-      <c r="AO3" s="193"/>
-      <c r="AP3" s="193"/>
-      <c r="AQ3" s="193"/>
-      <c r="AR3" s="193"/>
-      <c r="AS3" s="217"/>
-      <c r="AT3" s="217"/>
-      <c r="AU3" s="217"/>
-      <c r="AV3" s="217"/>
-      <c r="AW3" s="217"/>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="193"/>
-      <c r="AZ3" s="215"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="222"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="222"/>
+      <c r="AJ3" s="222"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="219"/>
+      <c r="AN3" s="219"/>
+      <c r="AO3" s="219"/>
+      <c r="AP3" s="219"/>
+      <c r="AQ3" s="219"/>
+      <c r="AR3" s="219"/>
+      <c r="AS3" s="227"/>
+      <c r="AT3" s="227"/>
+      <c r="AU3" s="227"/>
+      <c r="AV3" s="227"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="219"/>
+      <c r="AY3" s="219"/>
+      <c r="AZ3" s="225"/>
     </row>
     <row r="4" spans="1:52" s="24" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="18"/>
@@ -6671,1098 +6670,1098 @@
     </row>
     <row r="7" spans="1:52" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="A7" s="25"/>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="203" t="s">
+      <c r="C7" s="206"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="205"/>
-      <c r="K7" s="200" t="s">
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="200" t="s">
+      <c r="L7" s="206"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="201"/>
-      <c r="S7" s="201"/>
-      <c r="T7" s="201"/>
-      <c r="U7" s="201"/>
-      <c r="V7" s="201"/>
-      <c r="W7" s="201"/>
-      <c r="X7" s="201"/>
-      <c r="Y7" s="201"/>
-      <c r="Z7" s="201"/>
-      <c r="AA7" s="201"/>
-      <c r="AB7" s="201"/>
-      <c r="AC7" s="201"/>
-      <c r="AD7" s="201"/>
-      <c r="AE7" s="201"/>
-      <c r="AF7" s="201"/>
-      <c r="AG7" s="201"/>
-      <c r="AH7" s="201"/>
-      <c r="AI7" s="201"/>
-      <c r="AJ7" s="201"/>
-      <c r="AK7" s="201"/>
-      <c r="AL7" s="201"/>
-      <c r="AM7" s="201"/>
-      <c r="AN7" s="201"/>
-      <c r="AO7" s="201"/>
-      <c r="AP7" s="201"/>
-      <c r="AQ7" s="201"/>
-      <c r="AR7" s="201"/>
-      <c r="AS7" s="201"/>
-      <c r="AT7" s="201"/>
-      <c r="AU7" s="201"/>
-      <c r="AV7" s="201"/>
-      <c r="AW7" s="201"/>
-      <c r="AX7" s="201"/>
-      <c r="AY7" s="202"/>
+      <c r="R7" s="206"/>
+      <c r="S7" s="206"/>
+      <c r="T7" s="206"/>
+      <c r="U7" s="206"/>
+      <c r="V7" s="206"/>
+      <c r="W7" s="206"/>
+      <c r="X7" s="206"/>
+      <c r="Y7" s="206"/>
+      <c r="Z7" s="206"/>
+      <c r="AA7" s="206"/>
+      <c r="AB7" s="206"/>
+      <c r="AC7" s="206"/>
+      <c r="AD7" s="206"/>
+      <c r="AE7" s="206"/>
+      <c r="AF7" s="206"/>
+      <c r="AG7" s="206"/>
+      <c r="AH7" s="206"/>
+      <c r="AI7" s="206"/>
+      <c r="AJ7" s="206"/>
+      <c r="AK7" s="206"/>
+      <c r="AL7" s="206"/>
+      <c r="AM7" s="206"/>
+      <c r="AN7" s="206"/>
+      <c r="AO7" s="206"/>
+      <c r="AP7" s="206"/>
+      <c r="AQ7" s="206"/>
+      <c r="AR7" s="206"/>
+      <c r="AS7" s="206"/>
+      <c r="AT7" s="206"/>
+      <c r="AU7" s="206"/>
+      <c r="AV7" s="206"/>
+      <c r="AW7" s="206"/>
+      <c r="AX7" s="206"/>
+      <c r="AY7" s="207"/>
       <c r="AZ7" s="27"/>
     </row>
     <row r="8" spans="1:52" s="24" customFormat="1" ht="31.5" hidden="1" customHeight="1">
       <c r="A8" s="25"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="220"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="225"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="226"/>
-      <c r="O8" s="226"/>
-      <c r="P8" s="227"/>
-      <c r="Q8" s="228"/>
-      <c r="R8" s="226"/>
-      <c r="S8" s="226"/>
-      <c r="T8" s="226"/>
-      <c r="U8" s="226"/>
-      <c r="V8" s="226"/>
-      <c r="W8" s="226"/>
-      <c r="X8" s="226"/>
-      <c r="Y8" s="226"/>
-      <c r="Z8" s="226"/>
-      <c r="AA8" s="226"/>
-      <c r="AB8" s="226"/>
-      <c r="AC8" s="226"/>
-      <c r="AD8" s="226"/>
-      <c r="AE8" s="226"/>
-      <c r="AF8" s="226"/>
-      <c r="AG8" s="226"/>
-      <c r="AH8" s="226"/>
-      <c r="AI8" s="226"/>
-      <c r="AJ8" s="226"/>
-      <c r="AK8" s="226"/>
-      <c r="AL8" s="226"/>
-      <c r="AM8" s="226"/>
-      <c r="AN8" s="226"/>
-      <c r="AO8" s="226"/>
-      <c r="AP8" s="226"/>
-      <c r="AQ8" s="226"/>
-      <c r="AR8" s="226"/>
-      <c r="AS8" s="226"/>
-      <c r="AT8" s="226"/>
-      <c r="AU8" s="226"/>
-      <c r="AV8" s="226"/>
-      <c r="AW8" s="226"/>
-      <c r="AX8" s="226"/>
-      <c r="AY8" s="227"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="217"/>
+      <c r="R8" s="215"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="215"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="215"/>
+      <c r="X8" s="215"/>
+      <c r="Y8" s="215"/>
+      <c r="Z8" s="215"/>
+      <c r="AA8" s="215"/>
+      <c r="AB8" s="215"/>
+      <c r="AC8" s="215"/>
+      <c r="AD8" s="215"/>
+      <c r="AE8" s="215"/>
+      <c r="AF8" s="215"/>
+      <c r="AG8" s="215"/>
+      <c r="AH8" s="215"/>
+      <c r="AI8" s="215"/>
+      <c r="AJ8" s="215"/>
+      <c r="AK8" s="215"/>
+      <c r="AL8" s="215"/>
+      <c r="AM8" s="215"/>
+      <c r="AN8" s="215"/>
+      <c r="AO8" s="215"/>
+      <c r="AP8" s="215"/>
+      <c r="AQ8" s="215"/>
+      <c r="AR8" s="215"/>
+      <c r="AS8" s="215"/>
+      <c r="AT8" s="215"/>
+      <c r="AU8" s="215"/>
+      <c r="AV8" s="215"/>
+      <c r="AW8" s="215"/>
+      <c r="AX8" s="215"/>
+      <c r="AY8" s="216"/>
       <c r="AZ8" s="92"/>
     </row>
     <row r="9" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="181">
+      <c r="B9" s="187">
         <v>1</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184">
+      <c r="C9" s="188"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="190">
         <v>42591</v>
       </c>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="197" t="s">
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="236" t="s">
         <v>177</v>
       </c>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="218" t="s">
+      <c r="L9" s="185"/>
+      <c r="M9" s="185"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198"/>
-      <c r="T9" s="198"/>
-      <c r="U9" s="198"/>
-      <c r="V9" s="198"/>
-      <c r="W9" s="198"/>
-      <c r="X9" s="198"/>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="198"/>
-      <c r="AA9" s="198"/>
-      <c r="AB9" s="198"/>
-      <c r="AC9" s="198"/>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="198"/>
-      <c r="AF9" s="198"/>
-      <c r="AG9" s="198"/>
-      <c r="AH9" s="198"/>
-      <c r="AI9" s="198"/>
-      <c r="AJ9" s="198"/>
-      <c r="AK9" s="198"/>
-      <c r="AL9" s="198"/>
-      <c r="AM9" s="198"/>
-      <c r="AN9" s="198"/>
-      <c r="AO9" s="198"/>
-      <c r="AP9" s="198"/>
-      <c r="AQ9" s="198"/>
-      <c r="AR9" s="198"/>
-      <c r="AS9" s="198"/>
-      <c r="AT9" s="198"/>
-      <c r="AU9" s="198"/>
-      <c r="AV9" s="198"/>
-      <c r="AW9" s="198"/>
-      <c r="AX9" s="198"/>
-      <c r="AY9" s="199"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="185"/>
+      <c r="T9" s="185"/>
+      <c r="U9" s="185"/>
+      <c r="V9" s="185"/>
+      <c r="W9" s="185"/>
+      <c r="X9" s="185"/>
+      <c r="Y9" s="185"/>
+      <c r="Z9" s="185"/>
+      <c r="AA9" s="185"/>
+      <c r="AB9" s="185"/>
+      <c r="AC9" s="185"/>
+      <c r="AD9" s="185"/>
+      <c r="AE9" s="185"/>
+      <c r="AF9" s="185"/>
+      <c r="AG9" s="185"/>
+      <c r="AH9" s="185"/>
+      <c r="AI9" s="185"/>
+      <c r="AJ9" s="185"/>
+      <c r="AK9" s="185"/>
+      <c r="AL9" s="185"/>
+      <c r="AM9" s="185"/>
+      <c r="AN9" s="185"/>
+      <c r="AO9" s="185"/>
+      <c r="AP9" s="185"/>
+      <c r="AQ9" s="185"/>
+      <c r="AR9" s="185"/>
+      <c r="AS9" s="185"/>
+      <c r="AT9" s="185"/>
+      <c r="AU9" s="185"/>
+      <c r="AV9" s="185"/>
+      <c r="AW9" s="185"/>
+      <c r="AX9" s="185"/>
+      <c r="AY9" s="186"/>
       <c r="AZ9" s="92"/>
     </row>
     <row r="10" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="25"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="195"/>
-      <c r="M10" s="195"/>
-      <c r="N10" s="195"/>
-      <c r="O10" s="195"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="198"/>
-      <c r="U10" s="198"/>
-      <c r="V10" s="198"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="198"/>
-      <c r="Y10" s="198"/>
-      <c r="Z10" s="198"/>
-      <c r="AA10" s="198"/>
-      <c r="AB10" s="198"/>
-      <c r="AC10" s="198"/>
-      <c r="AD10" s="198"/>
-      <c r="AE10" s="198"/>
-      <c r="AF10" s="198"/>
-      <c r="AG10" s="198"/>
-      <c r="AH10" s="198"/>
-      <c r="AI10" s="198"/>
-      <c r="AJ10" s="198"/>
-      <c r="AK10" s="198"/>
-      <c r="AL10" s="198"/>
-      <c r="AM10" s="198"/>
-      <c r="AN10" s="198"/>
-      <c r="AO10" s="198"/>
-      <c r="AP10" s="198"/>
-      <c r="AQ10" s="198"/>
-      <c r="AR10" s="198"/>
-      <c r="AS10" s="198"/>
-      <c r="AT10" s="198"/>
-      <c r="AU10" s="198"/>
-      <c r="AV10" s="198"/>
-      <c r="AW10" s="198"/>
-      <c r="AX10" s="198"/>
-      <c r="AY10" s="199"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="185"/>
+      <c r="T10" s="185"/>
+      <c r="U10" s="185"/>
+      <c r="V10" s="185"/>
+      <c r="W10" s="185"/>
+      <c r="X10" s="185"/>
+      <c r="Y10" s="185"/>
+      <c r="Z10" s="185"/>
+      <c r="AA10" s="185"/>
+      <c r="AB10" s="185"/>
+      <c r="AC10" s="185"/>
+      <c r="AD10" s="185"/>
+      <c r="AE10" s="185"/>
+      <c r="AF10" s="185"/>
+      <c r="AG10" s="185"/>
+      <c r="AH10" s="185"/>
+      <c r="AI10" s="185"/>
+      <c r="AJ10" s="185"/>
+      <c r="AK10" s="185"/>
+      <c r="AL10" s="185"/>
+      <c r="AM10" s="185"/>
+      <c r="AN10" s="185"/>
+      <c r="AO10" s="185"/>
+      <c r="AP10" s="185"/>
+      <c r="AQ10" s="185"/>
+      <c r="AR10" s="185"/>
+      <c r="AS10" s="185"/>
+      <c r="AT10" s="185"/>
+      <c r="AU10" s="185"/>
+      <c r="AV10" s="185"/>
+      <c r="AW10" s="185"/>
+      <c r="AX10" s="185"/>
+      <c r="AY10" s="186"/>
       <c r="AZ10" s="92"/>
     </row>
     <row r="11" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="181"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="195"/>
-      <c r="M11" s="195"/>
-      <c r="N11" s="195"/>
-      <c r="O11" s="195"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="218"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198"/>
-      <c r="V11" s="198"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="198"/>
-      <c r="Z11" s="198"/>
-      <c r="AA11" s="198"/>
-      <c r="AB11" s="198"/>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="198"/>
-      <c r="AE11" s="198"/>
-      <c r="AF11" s="198"/>
-      <c r="AG11" s="198"/>
-      <c r="AH11" s="198"/>
-      <c r="AI11" s="198"/>
-      <c r="AJ11" s="198"/>
-      <c r="AK11" s="198"/>
-      <c r="AL11" s="198"/>
-      <c r="AM11" s="198"/>
-      <c r="AN11" s="198"/>
-      <c r="AO11" s="198"/>
-      <c r="AP11" s="198"/>
-      <c r="AQ11" s="198"/>
-      <c r="AR11" s="198"/>
-      <c r="AS11" s="198"/>
-      <c r="AT11" s="198"/>
-      <c r="AU11" s="198"/>
-      <c r="AV11" s="198"/>
-      <c r="AW11" s="198"/>
-      <c r="AX11" s="198"/>
-      <c r="AY11" s="199"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="182"/>
+      <c r="O11" s="182"/>
+      <c r="P11" s="183"/>
+      <c r="Q11" s="184"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="185"/>
+      <c r="T11" s="185"/>
+      <c r="U11" s="185"/>
+      <c r="V11" s="185"/>
+      <c r="W11" s="185"/>
+      <c r="X11" s="185"/>
+      <c r="Y11" s="185"/>
+      <c r="Z11" s="185"/>
+      <c r="AA11" s="185"/>
+      <c r="AB11" s="185"/>
+      <c r="AC11" s="185"/>
+      <c r="AD11" s="185"/>
+      <c r="AE11" s="185"/>
+      <c r="AF11" s="185"/>
+      <c r="AG11" s="185"/>
+      <c r="AH11" s="185"/>
+      <c r="AI11" s="185"/>
+      <c r="AJ11" s="185"/>
+      <c r="AK11" s="185"/>
+      <c r="AL11" s="185"/>
+      <c r="AM11" s="185"/>
+      <c r="AN11" s="185"/>
+      <c r="AO11" s="185"/>
+      <c r="AP11" s="185"/>
+      <c r="AQ11" s="185"/>
+      <c r="AR11" s="185"/>
+      <c r="AS11" s="185"/>
+      <c r="AT11" s="185"/>
+      <c r="AU11" s="185"/>
+      <c r="AV11" s="185"/>
+      <c r="AW11" s="185"/>
+      <c r="AX11" s="185"/>
+      <c r="AY11" s="186"/>
       <c r="AZ11" s="92"/>
     </row>
     <row r="12" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="25"/>
-      <c r="B12" s="181"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="195"/>
-      <c r="O12" s="195"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="198"/>
-      <c r="Y12" s="198"/>
-      <c r="Z12" s="198"/>
-      <c r="AA12" s="198"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="198"/>
-      <c r="AF12" s="198"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="198"/>
-      <c r="AI12" s="198"/>
-      <c r="AJ12" s="198"/>
-      <c r="AK12" s="198"/>
-      <c r="AL12" s="198"/>
-      <c r="AM12" s="198"/>
-      <c r="AN12" s="198"/>
-      <c r="AO12" s="198"/>
-      <c r="AP12" s="198"/>
-      <c r="AQ12" s="198"/>
-      <c r="AR12" s="198"/>
-      <c r="AS12" s="198"/>
-      <c r="AT12" s="198"/>
-      <c r="AU12" s="198"/>
-      <c r="AV12" s="198"/>
-      <c r="AW12" s="198"/>
-      <c r="AX12" s="198"/>
-      <c r="AY12" s="199"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="182"/>
+      <c r="P12" s="183"/>
+      <c r="Q12" s="184"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
+      <c r="U12" s="185"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="185"/>
+      <c r="Y12" s="185"/>
+      <c r="Z12" s="185"/>
+      <c r="AA12" s="185"/>
+      <c r="AB12" s="185"/>
+      <c r="AC12" s="185"/>
+      <c r="AD12" s="185"/>
+      <c r="AE12" s="185"/>
+      <c r="AF12" s="185"/>
+      <c r="AG12" s="185"/>
+      <c r="AH12" s="185"/>
+      <c r="AI12" s="185"/>
+      <c r="AJ12" s="185"/>
+      <c r="AK12" s="185"/>
+      <c r="AL12" s="185"/>
+      <c r="AM12" s="185"/>
+      <c r="AN12" s="185"/>
+      <c r="AO12" s="185"/>
+      <c r="AP12" s="185"/>
+      <c r="AQ12" s="185"/>
+      <c r="AR12" s="185"/>
+      <c r="AS12" s="185"/>
+      <c r="AT12" s="185"/>
+      <c r="AU12" s="185"/>
+      <c r="AV12" s="185"/>
+      <c r="AW12" s="185"/>
+      <c r="AX12" s="185"/>
+      <c r="AY12" s="186"/>
       <c r="AZ12" s="92"/>
     </row>
     <row r="13" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="25"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="195"/>
-      <c r="M13" s="195"/>
-      <c r="N13" s="195"/>
-      <c r="O13" s="195"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="218"/>
-      <c r="R13" s="198"/>
-      <c r="S13" s="198"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="198"/>
-      <c r="X13" s="198"/>
-      <c r="Y13" s="198"/>
-      <c r="Z13" s="198"/>
-      <c r="AA13" s="198"/>
-      <c r="AB13" s="198"/>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="198"/>
-      <c r="AE13" s="198"/>
-      <c r="AF13" s="198"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="198"/>
-      <c r="AI13" s="198"/>
-      <c r="AJ13" s="198"/>
-      <c r="AK13" s="198"/>
-      <c r="AL13" s="198"/>
-      <c r="AM13" s="198"/>
-      <c r="AN13" s="198"/>
-      <c r="AO13" s="198"/>
-      <c r="AP13" s="198"/>
-      <c r="AQ13" s="198"/>
-      <c r="AR13" s="198"/>
-      <c r="AS13" s="198"/>
-      <c r="AT13" s="198"/>
-      <c r="AU13" s="198"/>
-      <c r="AV13" s="198"/>
-      <c r="AW13" s="198"/>
-      <c r="AX13" s="198"/>
-      <c r="AY13" s="199"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="182"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="183"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="185"/>
+      <c r="S13" s="185"/>
+      <c r="T13" s="185"/>
+      <c r="U13" s="185"/>
+      <c r="V13" s="185"/>
+      <c r="W13" s="185"/>
+      <c r="X13" s="185"/>
+      <c r="Y13" s="185"/>
+      <c r="Z13" s="185"/>
+      <c r="AA13" s="185"/>
+      <c r="AB13" s="185"/>
+      <c r="AC13" s="185"/>
+      <c r="AD13" s="185"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="185"/>
+      <c r="AG13" s="185"/>
+      <c r="AH13" s="185"/>
+      <c r="AI13" s="185"/>
+      <c r="AJ13" s="185"/>
+      <c r="AK13" s="185"/>
+      <c r="AL13" s="185"/>
+      <c r="AM13" s="185"/>
+      <c r="AN13" s="185"/>
+      <c r="AO13" s="185"/>
+      <c r="AP13" s="185"/>
+      <c r="AQ13" s="185"/>
+      <c r="AR13" s="185"/>
+      <c r="AS13" s="185"/>
+      <c r="AT13" s="185"/>
+      <c r="AU13" s="185"/>
+      <c r="AV13" s="185"/>
+      <c r="AW13" s="185"/>
+      <c r="AX13" s="185"/>
+      <c r="AY13" s="186"/>
       <c r="AZ13" s="92"/>
     </row>
     <row r="14" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="25"/>
-      <c r="B14" s="181"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="195"/>
-      <c r="M14" s="195"/>
-      <c r="N14" s="195"/>
-      <c r="O14" s="195"/>
-      <c r="P14" s="196"/>
-      <c r="Q14" s="218"/>
-      <c r="R14" s="198"/>
-      <c r="S14" s="198"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="198"/>
-      <c r="X14" s="198"/>
-      <c r="Y14" s="198"/>
-      <c r="Z14" s="198"/>
-      <c r="AA14" s="198"/>
-      <c r="AB14" s="198"/>
-      <c r="AC14" s="198"/>
-      <c r="AD14" s="198"/>
-      <c r="AE14" s="198"/>
-      <c r="AF14" s="198"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="198"/>
-      <c r="AI14" s="198"/>
-      <c r="AJ14" s="198"/>
-      <c r="AK14" s="198"/>
-      <c r="AL14" s="198"/>
-      <c r="AM14" s="198"/>
-      <c r="AN14" s="198"/>
-      <c r="AO14" s="198"/>
-      <c r="AP14" s="198"/>
-      <c r="AQ14" s="198"/>
-      <c r="AR14" s="198"/>
-      <c r="AS14" s="198"/>
-      <c r="AT14" s="198"/>
-      <c r="AU14" s="198"/>
-      <c r="AV14" s="198"/>
-      <c r="AW14" s="198"/>
-      <c r="AX14" s="198"/>
-      <c r="AY14" s="199"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="182"/>
+      <c r="O14" s="182"/>
+      <c r="P14" s="183"/>
+      <c r="Q14" s="184"/>
+      <c r="R14" s="185"/>
+      <c r="S14" s="185"/>
+      <c r="T14" s="185"/>
+      <c r="U14" s="185"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="185"/>
+      <c r="X14" s="185"/>
+      <c r="Y14" s="185"/>
+      <c r="Z14" s="185"/>
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="185"/>
+      <c r="AC14" s="185"/>
+      <c r="AD14" s="185"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="185"/>
+      <c r="AG14" s="185"/>
+      <c r="AH14" s="185"/>
+      <c r="AI14" s="185"/>
+      <c r="AJ14" s="185"/>
+      <c r="AK14" s="185"/>
+      <c r="AL14" s="185"/>
+      <c r="AM14" s="185"/>
+      <c r="AN14" s="185"/>
+      <c r="AO14" s="185"/>
+      <c r="AP14" s="185"/>
+      <c r="AQ14" s="185"/>
+      <c r="AR14" s="185"/>
+      <c r="AS14" s="185"/>
+      <c r="AT14" s="185"/>
+      <c r="AU14" s="185"/>
+      <c r="AV14" s="185"/>
+      <c r="AW14" s="185"/>
+      <c r="AX14" s="185"/>
+      <c r="AY14" s="186"/>
       <c r="AZ14" s="92"/>
     </row>
     <row r="15" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A15" s="25"/>
-      <c r="B15" s="181"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="195"/>
-      <c r="M15" s="195"/>
-      <c r="N15" s="195"/>
-      <c r="O15" s="195"/>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="198"/>
-      <c r="S15" s="198"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="198"/>
-      <c r="X15" s="198"/>
-      <c r="Y15" s="198"/>
-      <c r="Z15" s="198"/>
-      <c r="AA15" s="198"/>
-      <c r="AB15" s="198"/>
-      <c r="AC15" s="198"/>
-      <c r="AD15" s="198"/>
-      <c r="AE15" s="198"/>
-      <c r="AF15" s="198"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="198"/>
-      <c r="AI15" s="198"/>
-      <c r="AJ15" s="198"/>
-      <c r="AK15" s="198"/>
-      <c r="AL15" s="198"/>
-      <c r="AM15" s="198"/>
-      <c r="AN15" s="198"/>
-      <c r="AO15" s="198"/>
-      <c r="AP15" s="198"/>
-      <c r="AQ15" s="198"/>
-      <c r="AR15" s="198"/>
-      <c r="AS15" s="198"/>
-      <c r="AT15" s="198"/>
-      <c r="AU15" s="198"/>
-      <c r="AV15" s="198"/>
-      <c r="AW15" s="198"/>
-      <c r="AX15" s="198"/>
-      <c r="AY15" s="199"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="182"/>
+      <c r="P15" s="183"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="185"/>
+      <c r="S15" s="185"/>
+      <c r="T15" s="185"/>
+      <c r="U15" s="185"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="185"/>
+      <c r="X15" s="185"/>
+      <c r="Y15" s="185"/>
+      <c r="Z15" s="185"/>
+      <c r="AA15" s="185"/>
+      <c r="AB15" s="185"/>
+      <c r="AC15" s="185"/>
+      <c r="AD15" s="185"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="185"/>
+      <c r="AG15" s="185"/>
+      <c r="AH15" s="185"/>
+      <c r="AI15" s="185"/>
+      <c r="AJ15" s="185"/>
+      <c r="AK15" s="185"/>
+      <c r="AL15" s="185"/>
+      <c r="AM15" s="185"/>
+      <c r="AN15" s="185"/>
+      <c r="AO15" s="185"/>
+      <c r="AP15" s="185"/>
+      <c r="AQ15" s="185"/>
+      <c r="AR15" s="185"/>
+      <c r="AS15" s="185"/>
+      <c r="AT15" s="185"/>
+      <c r="AU15" s="185"/>
+      <c r="AV15" s="185"/>
+      <c r="AW15" s="185"/>
+      <c r="AX15" s="185"/>
+      <c r="AY15" s="186"/>
       <c r="AZ15" s="92"/>
     </row>
     <row r="16" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="25"/>
-      <c r="B16" s="181"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="195"/>
-      <c r="M16" s="195"/>
-      <c r="N16" s="195"/>
-      <c r="O16" s="195"/>
-      <c r="P16" s="196"/>
-      <c r="Q16" s="218"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="198"/>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="198"/>
-      <c r="X16" s="198"/>
-      <c r="Y16" s="198"/>
-      <c r="Z16" s="198"/>
-      <c r="AA16" s="198"/>
-      <c r="AB16" s="198"/>
-      <c r="AC16" s="198"/>
-      <c r="AD16" s="198"/>
-      <c r="AE16" s="198"/>
-      <c r="AF16" s="198"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="198"/>
-      <c r="AI16" s="198"/>
-      <c r="AJ16" s="198"/>
-      <c r="AK16" s="198"/>
-      <c r="AL16" s="198"/>
-      <c r="AM16" s="198"/>
-      <c r="AN16" s="198"/>
-      <c r="AO16" s="198"/>
-      <c r="AP16" s="198"/>
-      <c r="AQ16" s="198"/>
-      <c r="AR16" s="198"/>
-      <c r="AS16" s="198"/>
-      <c r="AT16" s="198"/>
-      <c r="AU16" s="198"/>
-      <c r="AV16" s="198"/>
-      <c r="AW16" s="198"/>
-      <c r="AX16" s="198"/>
-      <c r="AY16" s="199"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="182"/>
+      <c r="P16" s="183"/>
+      <c r="Q16" s="184"/>
+      <c r="R16" s="185"/>
+      <c r="S16" s="185"/>
+      <c r="T16" s="185"/>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="185"/>
+      <c r="X16" s="185"/>
+      <c r="Y16" s="185"/>
+      <c r="Z16" s="185"/>
+      <c r="AA16" s="185"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="185"/>
+      <c r="AD16" s="185"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="185"/>
+      <c r="AG16" s="185"/>
+      <c r="AH16" s="185"/>
+      <c r="AI16" s="185"/>
+      <c r="AJ16" s="185"/>
+      <c r="AK16" s="185"/>
+      <c r="AL16" s="185"/>
+      <c r="AM16" s="185"/>
+      <c r="AN16" s="185"/>
+      <c r="AO16" s="185"/>
+      <c r="AP16" s="185"/>
+      <c r="AQ16" s="185"/>
+      <c r="AR16" s="185"/>
+      <c r="AS16" s="185"/>
+      <c r="AT16" s="185"/>
+      <c r="AU16" s="185"/>
+      <c r="AV16" s="185"/>
+      <c r="AW16" s="185"/>
+      <c r="AX16" s="185"/>
+      <c r="AY16" s="186"/>
       <c r="AZ16" s="92"/>
     </row>
     <row r="17" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="25"/>
-      <c r="B17" s="181"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="194"/>
-      <c r="L17" s="195"/>
-      <c r="M17" s="195"/>
-      <c r="N17" s="195"/>
-      <c r="O17" s="195"/>
-      <c r="P17" s="196"/>
-      <c r="Q17" s="218"/>
-      <c r="R17" s="198"/>
-      <c r="S17" s="198"/>
-      <c r="T17" s="198"/>
-      <c r="U17" s="198"/>
-      <c r="V17" s="198"/>
-      <c r="W17" s="198"/>
-      <c r="X17" s="198"/>
-      <c r="Y17" s="198"/>
-      <c r="Z17" s="198"/>
-      <c r="AA17" s="198"/>
-      <c r="AB17" s="198"/>
-      <c r="AC17" s="198"/>
-      <c r="AD17" s="198"/>
-      <c r="AE17" s="198"/>
-      <c r="AF17" s="198"/>
-      <c r="AG17" s="198"/>
-      <c r="AH17" s="198"/>
-      <c r="AI17" s="198"/>
-      <c r="AJ17" s="198"/>
-      <c r="AK17" s="198"/>
-      <c r="AL17" s="198"/>
-      <c r="AM17" s="198"/>
-      <c r="AN17" s="198"/>
-      <c r="AO17" s="198"/>
-      <c r="AP17" s="198"/>
-      <c r="AQ17" s="198"/>
-      <c r="AR17" s="198"/>
-      <c r="AS17" s="198"/>
-      <c r="AT17" s="198"/>
-      <c r="AU17" s="198"/>
-      <c r="AV17" s="198"/>
-      <c r="AW17" s="198"/>
-      <c r="AX17" s="198"/>
-      <c r="AY17" s="199"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="184"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="185"/>
+      <c r="W17" s="185"/>
+      <c r="X17" s="185"/>
+      <c r="Y17" s="185"/>
+      <c r="Z17" s="185"/>
+      <c r="AA17" s="185"/>
+      <c r="AB17" s="185"/>
+      <c r="AC17" s="185"/>
+      <c r="AD17" s="185"/>
+      <c r="AE17" s="185"/>
+      <c r="AF17" s="185"/>
+      <c r="AG17" s="185"/>
+      <c r="AH17" s="185"/>
+      <c r="AI17" s="185"/>
+      <c r="AJ17" s="185"/>
+      <c r="AK17" s="185"/>
+      <c r="AL17" s="185"/>
+      <c r="AM17" s="185"/>
+      <c r="AN17" s="185"/>
+      <c r="AO17" s="185"/>
+      <c r="AP17" s="185"/>
+      <c r="AQ17" s="185"/>
+      <c r="AR17" s="185"/>
+      <c r="AS17" s="185"/>
+      <c r="AT17" s="185"/>
+      <c r="AU17" s="185"/>
+      <c r="AV17" s="185"/>
+      <c r="AW17" s="185"/>
+      <c r="AX17" s="185"/>
+      <c r="AY17" s="186"/>
       <c r="AZ17" s="92"/>
     </row>
     <row r="18" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="25"/>
-      <c r="B18" s="181"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="195"/>
-      <c r="M18" s="195"/>
-      <c r="N18" s="195"/>
-      <c r="O18" s="195"/>
-      <c r="P18" s="196"/>
-      <c r="Q18" s="218"/>
-      <c r="R18" s="198"/>
-      <c r="S18" s="198"/>
-      <c r="T18" s="198"/>
-      <c r="U18" s="198"/>
-      <c r="V18" s="198"/>
-      <c r="W18" s="198"/>
-      <c r="X18" s="198"/>
-      <c r="Y18" s="198"/>
-      <c r="Z18" s="198"/>
-      <c r="AA18" s="198"/>
-      <c r="AB18" s="198"/>
-      <c r="AC18" s="198"/>
-      <c r="AD18" s="198"/>
-      <c r="AE18" s="198"/>
-      <c r="AF18" s="198"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="198"/>
-      <c r="AI18" s="198"/>
-      <c r="AJ18" s="198"/>
-      <c r="AK18" s="198"/>
-      <c r="AL18" s="198"/>
-      <c r="AM18" s="198"/>
-      <c r="AN18" s="198"/>
-      <c r="AO18" s="198"/>
-      <c r="AP18" s="198"/>
-      <c r="AQ18" s="198"/>
-      <c r="AR18" s="198"/>
-      <c r="AS18" s="198"/>
-      <c r="AT18" s="198"/>
-      <c r="AU18" s="198"/>
-      <c r="AV18" s="198"/>
-      <c r="AW18" s="198"/>
-      <c r="AX18" s="198"/>
-      <c r="AY18" s="199"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="182"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="185"/>
+      <c r="S18" s="185"/>
+      <c r="T18" s="185"/>
+      <c r="U18" s="185"/>
+      <c r="V18" s="185"/>
+      <c r="W18" s="185"/>
+      <c r="X18" s="185"/>
+      <c r="Y18" s="185"/>
+      <c r="Z18" s="185"/>
+      <c r="AA18" s="185"/>
+      <c r="AB18" s="185"/>
+      <c r="AC18" s="185"/>
+      <c r="AD18" s="185"/>
+      <c r="AE18" s="185"/>
+      <c r="AF18" s="185"/>
+      <c r="AG18" s="185"/>
+      <c r="AH18" s="185"/>
+      <c r="AI18" s="185"/>
+      <c r="AJ18" s="185"/>
+      <c r="AK18" s="185"/>
+      <c r="AL18" s="185"/>
+      <c r="AM18" s="185"/>
+      <c r="AN18" s="185"/>
+      <c r="AO18" s="185"/>
+      <c r="AP18" s="185"/>
+      <c r="AQ18" s="185"/>
+      <c r="AR18" s="185"/>
+      <c r="AS18" s="185"/>
+      <c r="AT18" s="185"/>
+      <c r="AU18" s="185"/>
+      <c r="AV18" s="185"/>
+      <c r="AW18" s="185"/>
+      <c r="AX18" s="185"/>
+      <c r="AY18" s="186"/>
       <c r="AZ18" s="92"/>
     </row>
     <row r="19" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="181"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="195"/>
-      <c r="M19" s="195"/>
-      <c r="N19" s="195"/>
-      <c r="O19" s="195"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="218"/>
-      <c r="R19" s="198"/>
-      <c r="S19" s="198"/>
-      <c r="T19" s="198"/>
-      <c r="U19" s="198"/>
-      <c r="V19" s="198"/>
-      <c r="W19" s="198"/>
-      <c r="X19" s="198"/>
-      <c r="Y19" s="198"/>
-      <c r="Z19" s="198"/>
-      <c r="AA19" s="198"/>
-      <c r="AB19" s="198"/>
-      <c r="AC19" s="198"/>
-      <c r="AD19" s="198"/>
-      <c r="AE19" s="198"/>
-      <c r="AF19" s="198"/>
-      <c r="AG19" s="198"/>
-      <c r="AH19" s="198"/>
-      <c r="AI19" s="198"/>
-      <c r="AJ19" s="198"/>
-      <c r="AK19" s="198"/>
-      <c r="AL19" s="198"/>
-      <c r="AM19" s="198"/>
-      <c r="AN19" s="198"/>
-      <c r="AO19" s="198"/>
-      <c r="AP19" s="198"/>
-      <c r="AQ19" s="198"/>
-      <c r="AR19" s="198"/>
-      <c r="AS19" s="198"/>
-      <c r="AT19" s="198"/>
-      <c r="AU19" s="198"/>
-      <c r="AV19" s="198"/>
-      <c r="AW19" s="198"/>
-      <c r="AX19" s="198"/>
-      <c r="AY19" s="199"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="183"/>
+      <c r="Q19" s="184"/>
+      <c r="R19" s="185"/>
+      <c r="S19" s="185"/>
+      <c r="T19" s="185"/>
+      <c r="U19" s="185"/>
+      <c r="V19" s="185"/>
+      <c r="W19" s="185"/>
+      <c r="X19" s="185"/>
+      <c r="Y19" s="185"/>
+      <c r="Z19" s="185"/>
+      <c r="AA19" s="185"/>
+      <c r="AB19" s="185"/>
+      <c r="AC19" s="185"/>
+      <c r="AD19" s="185"/>
+      <c r="AE19" s="185"/>
+      <c r="AF19" s="185"/>
+      <c r="AG19" s="185"/>
+      <c r="AH19" s="185"/>
+      <c r="AI19" s="185"/>
+      <c r="AJ19" s="185"/>
+      <c r="AK19" s="185"/>
+      <c r="AL19" s="185"/>
+      <c r="AM19" s="185"/>
+      <c r="AN19" s="185"/>
+      <c r="AO19" s="185"/>
+      <c r="AP19" s="185"/>
+      <c r="AQ19" s="185"/>
+      <c r="AR19" s="185"/>
+      <c r="AS19" s="185"/>
+      <c r="AT19" s="185"/>
+      <c r="AU19" s="185"/>
+      <c r="AV19" s="185"/>
+      <c r="AW19" s="185"/>
+      <c r="AX19" s="185"/>
+      <c r="AY19" s="186"/>
       <c r="AZ19" s="92"/>
     </row>
     <row r="20" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="25"/>
-      <c r="B20" s="181"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="195"/>
-      <c r="M20" s="195"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
-      <c r="P20" s="196"/>
-      <c r="Q20" s="218"/>
-      <c r="R20" s="198"/>
-      <c r="S20" s="198"/>
-      <c r="T20" s="198"/>
-      <c r="U20" s="198"/>
-      <c r="V20" s="198"/>
-      <c r="W20" s="198"/>
-      <c r="X20" s="198"/>
-      <c r="Y20" s="198"/>
-      <c r="Z20" s="198"/>
-      <c r="AA20" s="198"/>
-      <c r="AB20" s="198"/>
-      <c r="AC20" s="198"/>
-      <c r="AD20" s="198"/>
-      <c r="AE20" s="198"/>
-      <c r="AF20" s="198"/>
-      <c r="AG20" s="198"/>
-      <c r="AH20" s="198"/>
-      <c r="AI20" s="198"/>
-      <c r="AJ20" s="198"/>
-      <c r="AK20" s="198"/>
-      <c r="AL20" s="198"/>
-      <c r="AM20" s="198"/>
-      <c r="AN20" s="198"/>
-      <c r="AO20" s="198"/>
-      <c r="AP20" s="198"/>
-      <c r="AQ20" s="198"/>
-      <c r="AR20" s="198"/>
-      <c r="AS20" s="198"/>
-      <c r="AT20" s="198"/>
-      <c r="AU20" s="198"/>
-      <c r="AV20" s="198"/>
-      <c r="AW20" s="198"/>
-      <c r="AX20" s="198"/>
-      <c r="AY20" s="199"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="183"/>
+      <c r="Q20" s="184"/>
+      <c r="R20" s="185"/>
+      <c r="S20" s="185"/>
+      <c r="T20" s="185"/>
+      <c r="U20" s="185"/>
+      <c r="V20" s="185"/>
+      <c r="W20" s="185"/>
+      <c r="X20" s="185"/>
+      <c r="Y20" s="185"/>
+      <c r="Z20" s="185"/>
+      <c r="AA20" s="185"/>
+      <c r="AB20" s="185"/>
+      <c r="AC20" s="185"/>
+      <c r="AD20" s="185"/>
+      <c r="AE20" s="185"/>
+      <c r="AF20" s="185"/>
+      <c r="AG20" s="185"/>
+      <c r="AH20" s="185"/>
+      <c r="AI20" s="185"/>
+      <c r="AJ20" s="185"/>
+      <c r="AK20" s="185"/>
+      <c r="AL20" s="185"/>
+      <c r="AM20" s="185"/>
+      <c r="AN20" s="185"/>
+      <c r="AO20" s="185"/>
+      <c r="AP20" s="185"/>
+      <c r="AQ20" s="185"/>
+      <c r="AR20" s="185"/>
+      <c r="AS20" s="185"/>
+      <c r="AT20" s="185"/>
+      <c r="AU20" s="185"/>
+      <c r="AV20" s="185"/>
+      <c r="AW20" s="185"/>
+      <c r="AX20" s="185"/>
+      <c r="AY20" s="186"/>
       <c r="AZ20" s="92"/>
     </row>
     <row r="21" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="25"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="195"/>
-      <c r="M21" s="195"/>
-      <c r="N21" s="195"/>
-      <c r="O21" s="195"/>
-      <c r="P21" s="196"/>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="198"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="198"/>
-      <c r="U21" s="198"/>
-      <c r="V21" s="198"/>
-      <c r="W21" s="198"/>
-      <c r="X21" s="198"/>
-      <c r="Y21" s="198"/>
-      <c r="Z21" s="198"/>
-      <c r="AA21" s="198"/>
-      <c r="AB21" s="198"/>
-      <c r="AC21" s="198"/>
-      <c r="AD21" s="198"/>
-      <c r="AE21" s="198"/>
-      <c r="AF21" s="198"/>
-      <c r="AG21" s="198"/>
-      <c r="AH21" s="198"/>
-      <c r="AI21" s="198"/>
-      <c r="AJ21" s="198"/>
-      <c r="AK21" s="198"/>
-      <c r="AL21" s="198"/>
-      <c r="AM21" s="198"/>
-      <c r="AN21" s="198"/>
-      <c r="AO21" s="198"/>
-      <c r="AP21" s="198"/>
-      <c r="AQ21" s="198"/>
-      <c r="AR21" s="198"/>
-      <c r="AS21" s="198"/>
-      <c r="AT21" s="198"/>
-      <c r="AU21" s="198"/>
-      <c r="AV21" s="198"/>
-      <c r="AW21" s="198"/>
-      <c r="AX21" s="198"/>
-      <c r="AY21" s="199"/>
+      <c r="B21" s="187"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="184"/>
+      <c r="R21" s="185"/>
+      <c r="S21" s="185"/>
+      <c r="T21" s="185"/>
+      <c r="U21" s="185"/>
+      <c r="V21" s="185"/>
+      <c r="W21" s="185"/>
+      <c r="X21" s="185"/>
+      <c r="Y21" s="185"/>
+      <c r="Z21" s="185"/>
+      <c r="AA21" s="185"/>
+      <c r="AB21" s="185"/>
+      <c r="AC21" s="185"/>
+      <c r="AD21" s="185"/>
+      <c r="AE21" s="185"/>
+      <c r="AF21" s="185"/>
+      <c r="AG21" s="185"/>
+      <c r="AH21" s="185"/>
+      <c r="AI21" s="185"/>
+      <c r="AJ21" s="185"/>
+      <c r="AK21" s="185"/>
+      <c r="AL21" s="185"/>
+      <c r="AM21" s="185"/>
+      <c r="AN21" s="185"/>
+      <c r="AO21" s="185"/>
+      <c r="AP21" s="185"/>
+      <c r="AQ21" s="185"/>
+      <c r="AR21" s="185"/>
+      <c r="AS21" s="185"/>
+      <c r="AT21" s="185"/>
+      <c r="AU21" s="185"/>
+      <c r="AV21" s="185"/>
+      <c r="AW21" s="185"/>
+      <c r="AX21" s="185"/>
+      <c r="AY21" s="186"/>
       <c r="AZ21" s="92"/>
     </row>
     <row r="22" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A22" s="25"/>
-      <c r="B22" s="181"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="195"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="195"/>
-      <c r="O22" s="195"/>
-      <c r="P22" s="196"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="198"/>
-      <c r="S22" s="198"/>
-      <c r="T22" s="198"/>
-      <c r="U22" s="198"/>
-      <c r="V22" s="198"/>
-      <c r="W22" s="198"/>
-      <c r="X22" s="198"/>
-      <c r="Y22" s="198"/>
-      <c r="Z22" s="198"/>
-      <c r="AA22" s="198"/>
-      <c r="AB22" s="198"/>
-      <c r="AC22" s="198"/>
-      <c r="AD22" s="198"/>
-      <c r="AE22" s="198"/>
-      <c r="AF22" s="198"/>
-      <c r="AG22" s="198"/>
-      <c r="AH22" s="198"/>
-      <c r="AI22" s="198"/>
-      <c r="AJ22" s="198"/>
-      <c r="AK22" s="198"/>
-      <c r="AL22" s="198"/>
-      <c r="AM22" s="198"/>
-      <c r="AN22" s="198"/>
-      <c r="AO22" s="198"/>
-      <c r="AP22" s="198"/>
-      <c r="AQ22" s="198"/>
-      <c r="AR22" s="198"/>
-      <c r="AS22" s="198"/>
-      <c r="AT22" s="198"/>
-      <c r="AU22" s="198"/>
-      <c r="AV22" s="198"/>
-      <c r="AW22" s="198"/>
-      <c r="AX22" s="198"/>
-      <c r="AY22" s="199"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="185"/>
+      <c r="S22" s="185"/>
+      <c r="T22" s="185"/>
+      <c r="U22" s="185"/>
+      <c r="V22" s="185"/>
+      <c r="W22" s="185"/>
+      <c r="X22" s="185"/>
+      <c r="Y22" s="185"/>
+      <c r="Z22" s="185"/>
+      <c r="AA22" s="185"/>
+      <c r="AB22" s="185"/>
+      <c r="AC22" s="185"/>
+      <c r="AD22" s="185"/>
+      <c r="AE22" s="185"/>
+      <c r="AF22" s="185"/>
+      <c r="AG22" s="185"/>
+      <c r="AH22" s="185"/>
+      <c r="AI22" s="185"/>
+      <c r="AJ22" s="185"/>
+      <c r="AK22" s="185"/>
+      <c r="AL22" s="185"/>
+      <c r="AM22" s="185"/>
+      <c r="AN22" s="185"/>
+      <c r="AO22" s="185"/>
+      <c r="AP22" s="185"/>
+      <c r="AQ22" s="185"/>
+      <c r="AR22" s="185"/>
+      <c r="AS22" s="185"/>
+      <c r="AT22" s="185"/>
+      <c r="AU22" s="185"/>
+      <c r="AV22" s="185"/>
+      <c r="AW22" s="185"/>
+      <c r="AX22" s="185"/>
+      <c r="AY22" s="186"/>
       <c r="AZ22" s="92"/>
     </row>
     <row r="23" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="194"/>
-      <c r="L23" s="195"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="195"/>
-      <c r="O23" s="195"/>
-      <c r="P23" s="196"/>
-      <c r="Q23" s="218"/>
-      <c r="R23" s="198"/>
-      <c r="S23" s="198"/>
-      <c r="T23" s="198"/>
-      <c r="U23" s="198"/>
-      <c r="V23" s="198"/>
-      <c r="W23" s="198"/>
-      <c r="X23" s="198"/>
-      <c r="Y23" s="198"/>
-      <c r="Z23" s="198"/>
-      <c r="AA23" s="198"/>
-      <c r="AB23" s="198"/>
-      <c r="AC23" s="198"/>
-      <c r="AD23" s="198"/>
-      <c r="AE23" s="198"/>
-      <c r="AF23" s="198"/>
-      <c r="AG23" s="198"/>
-      <c r="AH23" s="198"/>
-      <c r="AI23" s="198"/>
-      <c r="AJ23" s="198"/>
-      <c r="AK23" s="198"/>
-      <c r="AL23" s="198"/>
-      <c r="AM23" s="198"/>
-      <c r="AN23" s="198"/>
-      <c r="AO23" s="198"/>
-      <c r="AP23" s="198"/>
-      <c r="AQ23" s="198"/>
-      <c r="AR23" s="198"/>
-      <c r="AS23" s="198"/>
-      <c r="AT23" s="198"/>
-      <c r="AU23" s="198"/>
-      <c r="AV23" s="198"/>
-      <c r="AW23" s="198"/>
-      <c r="AX23" s="198"/>
-      <c r="AY23" s="199"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="185"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="185"/>
+      <c r="U23" s="185"/>
+      <c r="V23" s="185"/>
+      <c r="W23" s="185"/>
+      <c r="X23" s="185"/>
+      <c r="Y23" s="185"/>
+      <c r="Z23" s="185"/>
+      <c r="AA23" s="185"/>
+      <c r="AB23" s="185"/>
+      <c r="AC23" s="185"/>
+      <c r="AD23" s="185"/>
+      <c r="AE23" s="185"/>
+      <c r="AF23" s="185"/>
+      <c r="AG23" s="185"/>
+      <c r="AH23" s="185"/>
+      <c r="AI23" s="185"/>
+      <c r="AJ23" s="185"/>
+      <c r="AK23" s="185"/>
+      <c r="AL23" s="185"/>
+      <c r="AM23" s="185"/>
+      <c r="AN23" s="185"/>
+      <c r="AO23" s="185"/>
+      <c r="AP23" s="185"/>
+      <c r="AQ23" s="185"/>
+      <c r="AR23" s="185"/>
+      <c r="AS23" s="185"/>
+      <c r="AT23" s="185"/>
+      <c r="AU23" s="185"/>
+      <c r="AV23" s="185"/>
+      <c r="AW23" s="185"/>
+      <c r="AX23" s="185"/>
+      <c r="AY23" s="186"/>
       <c r="AZ23" s="92"/>
     </row>
     <row r="24" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A24" s="25"/>
-      <c r="B24" s="181"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="195"/>
-      <c r="O24" s="195"/>
-      <c r="P24" s="196"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="198"/>
-      <c r="S24" s="198"/>
-      <c r="T24" s="198"/>
-      <c r="U24" s="198"/>
-      <c r="V24" s="198"/>
-      <c r="W24" s="198"/>
-      <c r="X24" s="198"/>
-      <c r="Y24" s="198"/>
-      <c r="Z24" s="198"/>
-      <c r="AA24" s="198"/>
-      <c r="AB24" s="198"/>
-      <c r="AC24" s="198"/>
-      <c r="AD24" s="198"/>
-      <c r="AE24" s="198"/>
-      <c r="AF24" s="198"/>
-      <c r="AG24" s="198"/>
-      <c r="AH24" s="198"/>
-      <c r="AI24" s="198"/>
-      <c r="AJ24" s="198"/>
-      <c r="AK24" s="198"/>
-      <c r="AL24" s="198"/>
-      <c r="AM24" s="198"/>
-      <c r="AN24" s="198"/>
-      <c r="AO24" s="198"/>
-      <c r="AP24" s="198"/>
-      <c r="AQ24" s="198"/>
-      <c r="AR24" s="198"/>
-      <c r="AS24" s="198"/>
-      <c r="AT24" s="198"/>
-      <c r="AU24" s="198"/>
-      <c r="AV24" s="198"/>
-      <c r="AW24" s="198"/>
-      <c r="AX24" s="198"/>
-      <c r="AY24" s="199"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="192"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="184"/>
+      <c r="R24" s="185"/>
+      <c r="S24" s="185"/>
+      <c r="T24" s="185"/>
+      <c r="U24" s="185"/>
+      <c r="V24" s="185"/>
+      <c r="W24" s="185"/>
+      <c r="X24" s="185"/>
+      <c r="Y24" s="185"/>
+      <c r="Z24" s="185"/>
+      <c r="AA24" s="185"/>
+      <c r="AB24" s="185"/>
+      <c r="AC24" s="185"/>
+      <c r="AD24" s="185"/>
+      <c r="AE24" s="185"/>
+      <c r="AF24" s="185"/>
+      <c r="AG24" s="185"/>
+      <c r="AH24" s="185"/>
+      <c r="AI24" s="185"/>
+      <c r="AJ24" s="185"/>
+      <c r="AK24" s="185"/>
+      <c r="AL24" s="185"/>
+      <c r="AM24" s="185"/>
+      <c r="AN24" s="185"/>
+      <c r="AO24" s="185"/>
+      <c r="AP24" s="185"/>
+      <c r="AQ24" s="185"/>
+      <c r="AR24" s="185"/>
+      <c r="AS24" s="185"/>
+      <c r="AT24" s="185"/>
+      <c r="AU24" s="185"/>
+      <c r="AV24" s="185"/>
+      <c r="AW24" s="185"/>
+      <c r="AX24" s="185"/>
+      <c r="AY24" s="186"/>
       <c r="AZ24" s="92"/>
     </row>
     <row r="25" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="194"/>
-      <c r="L25" s="195"/>
-      <c r="M25" s="195"/>
-      <c r="N25" s="195"/>
-      <c r="O25" s="195"/>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="218"/>
-      <c r="R25" s="198"/>
-      <c r="S25" s="198"/>
-      <c r="T25" s="198"/>
-      <c r="U25" s="198"/>
-      <c r="V25" s="198"/>
-      <c r="W25" s="198"/>
-      <c r="X25" s="198"/>
-      <c r="Y25" s="198"/>
-      <c r="Z25" s="198"/>
-      <c r="AA25" s="198"/>
-      <c r="AB25" s="198"/>
-      <c r="AC25" s="198"/>
-      <c r="AD25" s="198"/>
-      <c r="AE25" s="198"/>
-      <c r="AF25" s="198"/>
-      <c r="AG25" s="198"/>
-      <c r="AH25" s="198"/>
-      <c r="AI25" s="198"/>
-      <c r="AJ25" s="198"/>
-      <c r="AK25" s="198"/>
-      <c r="AL25" s="198"/>
-      <c r="AM25" s="198"/>
-      <c r="AN25" s="198"/>
-      <c r="AO25" s="198"/>
-      <c r="AP25" s="198"/>
-      <c r="AQ25" s="198"/>
-      <c r="AR25" s="198"/>
-      <c r="AS25" s="198"/>
-      <c r="AT25" s="198"/>
-      <c r="AU25" s="198"/>
-      <c r="AV25" s="198"/>
-      <c r="AW25" s="198"/>
-      <c r="AX25" s="198"/>
-      <c r="AY25" s="199"/>
+      <c r="B25" s="187"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="192"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="184"/>
+      <c r="R25" s="185"/>
+      <c r="S25" s="185"/>
+      <c r="T25" s="185"/>
+      <c r="U25" s="185"/>
+      <c r="V25" s="185"/>
+      <c r="W25" s="185"/>
+      <c r="X25" s="185"/>
+      <c r="Y25" s="185"/>
+      <c r="Z25" s="185"/>
+      <c r="AA25" s="185"/>
+      <c r="AB25" s="185"/>
+      <c r="AC25" s="185"/>
+      <c r="AD25" s="185"/>
+      <c r="AE25" s="185"/>
+      <c r="AF25" s="185"/>
+      <c r="AG25" s="185"/>
+      <c r="AH25" s="185"/>
+      <c r="AI25" s="185"/>
+      <c r="AJ25" s="185"/>
+      <c r="AK25" s="185"/>
+      <c r="AL25" s="185"/>
+      <c r="AM25" s="185"/>
+      <c r="AN25" s="185"/>
+      <c r="AO25" s="185"/>
+      <c r="AP25" s="185"/>
+      <c r="AQ25" s="185"/>
+      <c r="AR25" s="185"/>
+      <c r="AS25" s="185"/>
+      <c r="AT25" s="185"/>
+      <c r="AU25" s="185"/>
+      <c r="AV25" s="185"/>
+      <c r="AW25" s="185"/>
+      <c r="AX25" s="185"/>
+      <c r="AY25" s="186"/>
       <c r="AZ25" s="92"/>
     </row>
     <row r="26" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A26" s="25"/>
-      <c r="B26" s="229"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="231"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="235"/>
-      <c r="L26" s="236"/>
-      <c r="M26" s="236"/>
-      <c r="N26" s="236"/>
-      <c r="O26" s="236"/>
-      <c r="P26" s="237"/>
-      <c r="Q26" s="238"/>
-      <c r="R26" s="239"/>
-      <c r="S26" s="239"/>
-      <c r="T26" s="239"/>
-      <c r="U26" s="239"/>
-      <c r="V26" s="239"/>
-      <c r="W26" s="239"/>
-      <c r="X26" s="239"/>
-      <c r="Y26" s="239"/>
-      <c r="Z26" s="239"/>
-      <c r="AA26" s="239"/>
-      <c r="AB26" s="239"/>
-      <c r="AC26" s="239"/>
-      <c r="AD26" s="239"/>
-      <c r="AE26" s="239"/>
-      <c r="AF26" s="239"/>
-      <c r="AG26" s="239"/>
-      <c r="AH26" s="239"/>
-      <c r="AI26" s="239"/>
-      <c r="AJ26" s="239"/>
-      <c r="AK26" s="239"/>
-      <c r="AL26" s="239"/>
-      <c r="AM26" s="239"/>
-      <c r="AN26" s="239"/>
-      <c r="AO26" s="239"/>
-      <c r="AP26" s="239"/>
-      <c r="AQ26" s="239"/>
-      <c r="AR26" s="239"/>
-      <c r="AS26" s="239"/>
-      <c r="AT26" s="239"/>
-      <c r="AU26" s="239"/>
-      <c r="AV26" s="239"/>
-      <c r="AW26" s="239"/>
-      <c r="AX26" s="239"/>
-      <c r="AY26" s="240"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
+      <c r="N26" s="200"/>
+      <c r="O26" s="200"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="202"/>
+      <c r="R26" s="203"/>
+      <c r="S26" s="203"/>
+      <c r="T26" s="203"/>
+      <c r="U26" s="203"/>
+      <c r="V26" s="203"/>
+      <c r="W26" s="203"/>
+      <c r="X26" s="203"/>
+      <c r="Y26" s="203"/>
+      <c r="Z26" s="203"/>
+      <c r="AA26" s="203"/>
+      <c r="AB26" s="203"/>
+      <c r="AC26" s="203"/>
+      <c r="AD26" s="203"/>
+      <c r="AE26" s="203"/>
+      <c r="AF26" s="203"/>
+      <c r="AG26" s="203"/>
+      <c r="AH26" s="203"/>
+      <c r="AI26" s="203"/>
+      <c r="AJ26" s="203"/>
+      <c r="AK26" s="203"/>
+      <c r="AL26" s="203"/>
+      <c r="AM26" s="203"/>
+      <c r="AN26" s="203"/>
+      <c r="AO26" s="203"/>
+      <c r="AP26" s="203"/>
+      <c r="AQ26" s="203"/>
+      <c r="AR26" s="203"/>
+      <c r="AS26" s="203"/>
+      <c r="AT26" s="203"/>
+      <c r="AU26" s="203"/>
+      <c r="AV26" s="203"/>
+      <c r="AW26" s="203"/>
+      <c r="AX26" s="203"/>
+      <c r="AY26" s="204"/>
       <c r="AZ26" s="28"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1">
@@ -7875,29 +7874,64 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:AY25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:AY26"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:AY24"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="Q9:AY9"/>
     <mergeCell ref="K22:P22"/>
     <mergeCell ref="Q22:AY22"/>
     <mergeCell ref="K20:P20"/>
@@ -7914,64 +7948,29 @@
     <mergeCell ref="K18:P18"/>
     <mergeCell ref="Q18:AY18"/>
     <mergeCell ref="K16:P16"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:AY24"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:AY25"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -8003,201 +8002,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="231" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>レイアウト</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="206" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="206"/>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="208" t="str">
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="228" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="206" t="s">
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="206"/>
-      <c r="AJ1" s="206"/>
-      <c r="AK1" s="206"/>
-      <c r="AL1" s="206"/>
-      <c r="AM1" s="206" t="s">
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="206"/>
-      <c r="AO1" s="206"/>
-      <c r="AP1" s="206"/>
-      <c r="AQ1" s="206"/>
-      <c r="AR1" s="206"/>
-      <c r="AS1" s="206" t="s">
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="206"/>
-      <c r="AU1" s="206"/>
-      <c r="AV1" s="206"/>
-      <c r="AW1" s="206"/>
-      <c r="AX1" s="206" t="s">
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="206"/>
+      <c r="AY1" s="229"/>
       <c r="AZ1" s="244"/>
     </row>
     <row r="2" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="207" t="s">
+      <c r="A2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="210" t="str">
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="220" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="211">
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221">
         <v>42591</v>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
       <c r="AM2" s="250" t="s">
         <v>223</v>
       </c>
-      <c r="AN2" s="210"/>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="210"/>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="216"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="210"/>
-      <c r="AZ2" s="214"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="220"/>
+      <c r="AR2" s="220"/>
+      <c r="AS2" s="226"/>
+      <c r="AT2" s="226"/>
+      <c r="AU2" s="226"/>
+      <c r="AV2" s="226"/>
+      <c r="AW2" s="226"/>
+      <c r="AX2" s="220"/>
+      <c r="AY2" s="220"/>
+      <c r="AZ2" s="224"/>
     </row>
     <row r="3" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="192" t="s">
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="193" t="str">
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="219" t="str">
         <f>設定情報!$C$5</f>
         <v>ユーザ一覧画面</v>
       </c>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="212"/>
-      <c r="AK3" s="212"/>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="193"/>
-      <c r="AO3" s="193"/>
-      <c r="AP3" s="193"/>
-      <c r="AQ3" s="193"/>
-      <c r="AR3" s="193"/>
-      <c r="AS3" s="217"/>
-      <c r="AT3" s="217"/>
-      <c r="AU3" s="217"/>
-      <c r="AV3" s="217"/>
-      <c r="AW3" s="217"/>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="193"/>
-      <c r="AZ3" s="215"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="222"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="222"/>
+      <c r="AJ3" s="222"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="219"/>
+      <c r="AN3" s="219"/>
+      <c r="AO3" s="219"/>
+      <c r="AP3" s="219"/>
+      <c r="AQ3" s="219"/>
+      <c r="AR3" s="219"/>
+      <c r="AS3" s="227"/>
+      <c r="AT3" s="227"/>
+      <c r="AU3" s="227"/>
+      <c r="AV3" s="227"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="219"/>
+      <c r="AY3" s="219"/>
+      <c r="AZ3" s="225"/>
     </row>
     <row r="4" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="246" t="s">
@@ -10560,12 +10559,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AK4:AZ4"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
@@ -10582,6 +10575,12 @@
     <mergeCell ref="AM2:AR3"/>
     <mergeCell ref="AS2:AW3"/>
     <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -10614,201 +10613,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="231" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>遷移図</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="206" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="206"/>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="208" t="str">
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="228" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="206" t="s">
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="206"/>
-      <c r="AJ1" s="206"/>
-      <c r="AK1" s="206"/>
-      <c r="AL1" s="206"/>
-      <c r="AM1" s="206" t="s">
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="206"/>
-      <c r="AO1" s="206"/>
-      <c r="AP1" s="206"/>
-      <c r="AQ1" s="206"/>
-      <c r="AR1" s="206"/>
-      <c r="AS1" s="206" t="s">
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="206"/>
-      <c r="AU1" s="206"/>
-      <c r="AV1" s="206"/>
-      <c r="AW1" s="206"/>
-      <c r="AX1" s="206" t="s">
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="206"/>
+      <c r="AY1" s="229"/>
       <c r="AZ1" s="244"/>
     </row>
     <row r="2" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="207" t="s">
+      <c r="A2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="210" t="str">
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="220" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="211">
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221">
         <v>42591</v>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
       <c r="AM2" s="250" t="s">
         <v>223</v>
       </c>
-      <c r="AN2" s="210"/>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="210"/>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="216"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="210"/>
-      <c r="AZ2" s="214"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="220"/>
+      <c r="AR2" s="220"/>
+      <c r="AS2" s="226"/>
+      <c r="AT2" s="226"/>
+      <c r="AU2" s="226"/>
+      <c r="AV2" s="226"/>
+      <c r="AW2" s="226"/>
+      <c r="AX2" s="220"/>
+      <c r="AY2" s="220"/>
+      <c r="AZ2" s="224"/>
     </row>
     <row r="3" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="192" t="s">
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="193" t="str">
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="219" t="str">
         <f>設定情報!$C$5</f>
         <v>ユーザ一覧画面</v>
       </c>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="212"/>
-      <c r="AK3" s="212"/>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="193"/>
-      <c r="AO3" s="193"/>
-      <c r="AP3" s="193"/>
-      <c r="AQ3" s="193"/>
-      <c r="AR3" s="193"/>
-      <c r="AS3" s="217"/>
-      <c r="AT3" s="217"/>
-      <c r="AU3" s="217"/>
-      <c r="AV3" s="217"/>
-      <c r="AW3" s="217"/>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="193"/>
-      <c r="AZ3" s="215"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="222"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="222"/>
+      <c r="AJ3" s="222"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="219"/>
+      <c r="AN3" s="219"/>
+      <c r="AO3" s="219"/>
+      <c r="AP3" s="219"/>
+      <c r="AQ3" s="219"/>
+      <c r="AR3" s="219"/>
+      <c r="AS3" s="227"/>
+      <c r="AT3" s="227"/>
+      <c r="AU3" s="227"/>
+      <c r="AV3" s="227"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="219"/>
+      <c r="AY3" s="219"/>
+      <c r="AZ3" s="225"/>
     </row>
     <row r="4" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="246" t="s">
@@ -12593,6 +12592,9 @@
     <row r="59" spans="1:52" s="6" customFormat="1" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:M3"/>
@@ -12609,9 +12611,6 @@
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="AS1:AW1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -12646,201 +12645,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="231" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="206" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="206"/>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="208" t="str">
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="228" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="206" t="s">
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="206"/>
-      <c r="AJ1" s="206"/>
-      <c r="AK1" s="206"/>
-      <c r="AL1" s="206"/>
-      <c r="AM1" s="206" t="s">
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="206"/>
-      <c r="AO1" s="206"/>
-      <c r="AP1" s="206"/>
-      <c r="AQ1" s="206"/>
-      <c r="AR1" s="206"/>
-      <c r="AS1" s="206" t="s">
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="206"/>
-      <c r="AU1" s="206"/>
-      <c r="AV1" s="206"/>
-      <c r="AW1" s="206"/>
-      <c r="AX1" s="206" t="s">
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="206"/>
+      <c r="AY1" s="229"/>
       <c r="AZ1" s="244"/>
     </row>
     <row r="2" spans="1:54" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="207" t="s">
+      <c r="A2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="210" t="str">
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="220" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="211">
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221">
         <v>42591</v>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
       <c r="AM2" s="250" t="s">
         <v>223</v>
       </c>
-      <c r="AN2" s="210"/>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="210"/>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="216"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="210"/>
-      <c r="AZ2" s="214"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="220"/>
+      <c r="AR2" s="220"/>
+      <c r="AS2" s="226"/>
+      <c r="AT2" s="226"/>
+      <c r="AU2" s="226"/>
+      <c r="AV2" s="226"/>
+      <c r="AW2" s="226"/>
+      <c r="AX2" s="220"/>
+      <c r="AY2" s="220"/>
+      <c r="AZ2" s="224"/>
     </row>
     <row r="3" spans="1:54" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="262" t="str">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="258" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="263" t="s">
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="263"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="262" t="str">
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="259"/>
+      <c r="S3" s="258" t="str">
         <f>設定情報!$C$5</f>
         <v>ユーザ一覧画面</v>
       </c>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="262"/>
-      <c r="AA3" s="262"/>
-      <c r="AB3" s="262"/>
-      <c r="AC3" s="262"/>
-      <c r="AD3" s="262"/>
-      <c r="AE3" s="262"/>
-      <c r="AF3" s="262"/>
-      <c r="AG3" s="266"/>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="266"/>
-      <c r="AJ3" s="266"/>
-      <c r="AK3" s="266"/>
-      <c r="AL3" s="266"/>
-      <c r="AM3" s="262"/>
-      <c r="AN3" s="262"/>
-      <c r="AO3" s="262"/>
-      <c r="AP3" s="262"/>
-      <c r="AQ3" s="262"/>
-      <c r="AR3" s="262"/>
-      <c r="AS3" s="267"/>
-      <c r="AT3" s="267"/>
-      <c r="AU3" s="267"/>
-      <c r="AV3" s="267"/>
-      <c r="AW3" s="267"/>
-      <c r="AX3" s="262"/>
-      <c r="AY3" s="262"/>
-      <c r="AZ3" s="264"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="258"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="258"/>
+      <c r="AC3" s="258"/>
+      <c r="AD3" s="258"/>
+      <c r="AE3" s="258"/>
+      <c r="AF3" s="258"/>
+      <c r="AG3" s="262"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="262"/>
+      <c r="AJ3" s="262"/>
+      <c r="AK3" s="262"/>
+      <c r="AL3" s="262"/>
+      <c r="AM3" s="258"/>
+      <c r="AN3" s="258"/>
+      <c r="AO3" s="258"/>
+      <c r="AP3" s="258"/>
+      <c r="AQ3" s="258"/>
+      <c r="AR3" s="258"/>
+      <c r="AS3" s="263"/>
+      <c r="AT3" s="263"/>
+      <c r="AU3" s="263"/>
+      <c r="AV3" s="263"/>
+      <c r="AW3" s="263"/>
+      <c r="AX3" s="258"/>
+      <c r="AY3" s="258"/>
+      <c r="AZ3" s="260"/>
     </row>
     <row r="4" spans="1:54" s="34" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="130" t="s">
@@ -12856,12 +12855,12 @@
       <c r="G4" s="123"/>
       <c r="H4" s="123"/>
       <c r="I4" s="128"/>
-      <c r="J4" s="268" t="s">
+      <c r="J4" s="264" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="269"/>
-      <c r="L4" s="269"/>
-      <c r="M4" s="270"/>
+      <c r="K4" s="265"/>
+      <c r="L4" s="265"/>
+      <c r="M4" s="266"/>
       <c r="N4" s="122" t="s">
         <v>211</v>
       </c>
@@ -12922,52 +12921,52 @@
       <c r="G5" s="126"/>
       <c r="H5" s="126"/>
       <c r="I5" s="129"/>
-      <c r="J5" s="271"/>
-      <c r="K5" s="272"/>
-      <c r="L5" s="272"/>
-      <c r="M5" s="273"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="268"/>
+      <c r="L5" s="268"/>
+      <c r="M5" s="269"/>
       <c r="N5" s="126"/>
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
       <c r="Q5" s="126"/>
       <c r="R5" s="126"/>
       <c r="S5" s="126"/>
-      <c r="T5" s="257" t="s">
+      <c r="T5" s="255" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="258"/>
-      <c r="V5" s="257" t="s">
+      <c r="U5" s="257"/>
+      <c r="V5" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="W5" s="259"/>
-      <c r="X5" s="259"/>
-      <c r="Y5" s="259"/>
-      <c r="Z5" s="259"/>
-      <c r="AA5" s="258"/>
-      <c r="AB5" s="257" t="s">
+      <c r="W5" s="256"/>
+      <c r="X5" s="256"/>
+      <c r="Y5" s="256"/>
+      <c r="Z5" s="256"/>
+      <c r="AA5" s="257"/>
+      <c r="AB5" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="AC5" s="258"/>
-      <c r="AD5" s="257" t="s">
+      <c r="AC5" s="257"/>
+      <c r="AD5" s="255" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" s="258"/>
-      <c r="AF5" s="257" t="s">
+      <c r="AE5" s="257"/>
+      <c r="AF5" s="255" t="s">
         <v>92</v>
       </c>
-      <c r="AG5" s="259"/>
-      <c r="AH5" s="259"/>
-      <c r="AI5" s="259"/>
-      <c r="AJ5" s="259"/>
-      <c r="AK5" s="258"/>
-      <c r="AL5" s="257" t="s">
+      <c r="AG5" s="256"/>
+      <c r="AH5" s="256"/>
+      <c r="AI5" s="256"/>
+      <c r="AJ5" s="256"/>
+      <c r="AK5" s="257"/>
+      <c r="AL5" s="255" t="s">
         <v>199</v>
       </c>
-      <c r="AM5" s="259"/>
-      <c r="AN5" s="259"/>
-      <c r="AO5" s="259"/>
-      <c r="AP5" s="259"/>
-      <c r="AQ5" s="258"/>
+      <c r="AM5" s="256"/>
+      <c r="AN5" s="256"/>
+      <c r="AO5" s="256"/>
+      <c r="AP5" s="256"/>
+      <c r="AQ5" s="257"/>
       <c r="AR5" s="125"/>
       <c r="AS5" s="126"/>
       <c r="AT5" s="126"/>
@@ -13000,18 +12999,18 @@
       <c r="Q6" s="72"/>
       <c r="R6" s="72"/>
       <c r="S6" s="72"/>
-      <c r="T6" s="260"/>
-      <c r="U6" s="261"/>
+      <c r="T6" s="270"/>
+      <c r="U6" s="271"/>
       <c r="V6" s="106"/>
       <c r="W6" s="107"/>
       <c r="X6" s="107"/>
       <c r="Y6" s="107"/>
       <c r="Z6" s="107"/>
       <c r="AA6" s="108"/>
-      <c r="AB6" s="260"/>
-      <c r="AC6" s="261"/>
-      <c r="AD6" s="260"/>
-      <c r="AE6" s="261"/>
+      <c r="AB6" s="270"/>
+      <c r="AC6" s="271"/>
+      <c r="AD6" s="270"/>
+      <c r="AE6" s="271"/>
       <c r="AF6" s="67"/>
       <c r="AG6" s="70"/>
       <c r="AH6" s="70"/>
@@ -16055,10 +16054,10 @@
       <c r="Q56" s="65"/>
       <c r="R56" s="65"/>
       <c r="S56" s="65"/>
-      <c r="T56" s="255" t="s">
+      <c r="T56" s="272" t="s">
         <v>200</v>
       </c>
-      <c r="U56" s="256"/>
+      <c r="U56" s="273"/>
       <c r="V56" s="62" t="s">
         <v>200</v>
       </c>
@@ -16067,14 +16066,14 @@
       <c r="Y56" s="63"/>
       <c r="Z56" s="63"/>
       <c r="AA56" s="64"/>
-      <c r="AB56" s="255" t="s">
+      <c r="AB56" s="272" t="s">
         <v>200</v>
       </c>
-      <c r="AC56" s="256"/>
-      <c r="AD56" s="255" t="s">
+      <c r="AC56" s="273"/>
+      <c r="AD56" s="272" t="s">
         <v>200</v>
       </c>
-      <c r="AE56" s="256"/>
+      <c r="AE56" s="273"/>
       <c r="AF56" s="62" t="s">
         <v>200</v>
       </c>
@@ -16107,6 +16106,156 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="174">
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AD54:AE54"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AD53:AE53"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T47:U47"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -16131,156 +16280,6 @@
     <mergeCell ref="AL5:AQ5"/>
     <mergeCell ref="J4:M5"/>
     <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="AD54:AE54"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AD53:AE53"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -16313,210 +16312,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="231" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面仕様</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="206" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="206"/>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="208" t="str">
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="228" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="206" t="s">
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="206"/>
-      <c r="AJ1" s="206"/>
-      <c r="AK1" s="206"/>
-      <c r="AL1" s="206"/>
-      <c r="AM1" s="206" t="s">
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="206"/>
-      <c r="AO1" s="206"/>
-      <c r="AP1" s="206"/>
-      <c r="AQ1" s="206"/>
-      <c r="AR1" s="206"/>
-      <c r="AS1" s="206" t="s">
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="206"/>
-      <c r="AU1" s="206"/>
-      <c r="AV1" s="206"/>
-      <c r="AW1" s="206"/>
-      <c r="AX1" s="206" t="s">
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="206"/>
+      <c r="AY1" s="229"/>
       <c r="AZ1" s="244"/>
     </row>
     <row r="2" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="207" t="s">
+      <c r="A2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="210" t="str">
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="220" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="211">
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221">
         <v>42591</v>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
       <c r="AM2" s="250" t="s">
         <v>223</v>
       </c>
-      <c r="AN2" s="210"/>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="210"/>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="216"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="210"/>
-      <c r="AZ2" s="214"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="220"/>
+      <c r="AR2" s="220"/>
+      <c r="AS2" s="226"/>
+      <c r="AT2" s="226"/>
+      <c r="AU2" s="226"/>
+      <c r="AV2" s="226"/>
+      <c r="AW2" s="226"/>
+      <c r="AX2" s="220"/>
+      <c r="AY2" s="220"/>
+      <c r="AZ2" s="224"/>
     </row>
     <row r="3" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="192" t="s">
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="193" t="str">
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="219" t="str">
         <f>設定情報!$C$5</f>
         <v>ユーザ一覧画面</v>
       </c>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="212"/>
-      <c r="AK3" s="212"/>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="193"/>
-      <c r="AO3" s="193"/>
-      <c r="AP3" s="193"/>
-      <c r="AQ3" s="193"/>
-      <c r="AR3" s="193"/>
-      <c r="AS3" s="217"/>
-      <c r="AT3" s="217"/>
-      <c r="AU3" s="217"/>
-      <c r="AV3" s="217"/>
-      <c r="AW3" s="217"/>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="193"/>
-      <c r="AZ3" s="215"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="222"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="222"/>
+      <c r="AJ3" s="222"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="219"/>
+      <c r="AN3" s="219"/>
+      <c r="AO3" s="219"/>
+      <c r="AP3" s="219"/>
+      <c r="AQ3" s="219"/>
+      <c r="AR3" s="219"/>
+      <c r="AS3" s="227"/>
+      <c r="AT3" s="227"/>
+      <c r="AU3" s="227"/>
+      <c r="AV3" s="227"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="219"/>
+      <c r="AY3" s="219"/>
+      <c r="AZ3" s="225"/>
     </row>
     <row r="4" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="277" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="275"/>
       <c r="C4" s="275"/>
       <c r="D4" s="275"/>
-      <c r="E4" s="276"/>
+      <c r="E4" s="278"/>
       <c r="F4" s="133" t="s">
         <v>68</v>
       </c>
@@ -16552,7 +16551,7 @@
       <c r="AJ4" s="133"/>
       <c r="AK4" s="133"/>
       <c r="AL4" s="133"/>
-      <c r="AM4" s="277" t="s">
+      <c r="AM4" s="274" t="s">
         <v>29</v>
       </c>
       <c r="AN4" s="275"/>
@@ -16567,7 +16566,7 @@
       <c r="AW4" s="275"/>
       <c r="AX4" s="275"/>
       <c r="AY4" s="275"/>
-      <c r="AZ4" s="278"/>
+      <c r="AZ4" s="276"/>
     </row>
     <row r="5" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A5" s="134"/>
@@ -16900,13 +16899,13 @@
       <c r="AZ9" s="142"/>
     </row>
     <row r="10" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A10" s="274" t="s">
+      <c r="A10" s="277" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="275"/>
       <c r="C10" s="275"/>
       <c r="D10" s="275"/>
-      <c r="E10" s="276"/>
+      <c r="E10" s="278"/>
       <c r="F10" s="133" t="s">
         <v>73</v>
       </c>
@@ -16942,7 +16941,7 @@
       <c r="AJ10" s="133"/>
       <c r="AK10" s="133"/>
       <c r="AL10" s="133"/>
-      <c r="AM10" s="277" t="s">
+      <c r="AM10" s="274" t="s">
         <v>29</v>
       </c>
       <c r="AN10" s="275"/>
@@ -16957,7 +16956,7 @@
       <c r="AW10" s="275"/>
       <c r="AX10" s="275"/>
       <c r="AY10" s="275"/>
-      <c r="AZ10" s="278"/>
+      <c r="AZ10" s="276"/>
     </row>
     <row r="11" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A11" s="134"/>
@@ -18222,13 +18221,13 @@
       <c r="AZ28" s="142"/>
     </row>
     <row r="29" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A29" s="274" t="s">
+      <c r="A29" s="277" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="275"/>
       <c r="C29" s="275"/>
       <c r="D29" s="275"/>
-      <c r="E29" s="276"/>
+      <c r="E29" s="278"/>
       <c r="F29" s="133" t="s">
         <v>111</v>
       </c>
@@ -18264,7 +18263,7 @@
       <c r="AJ29" s="133"/>
       <c r="AK29" s="133"/>
       <c r="AL29" s="133"/>
-      <c r="AM29" s="277" t="s">
+      <c r="AM29" s="274" t="s">
         <v>29</v>
       </c>
       <c r="AN29" s="275"/>
@@ -18279,7 +18278,7 @@
       <c r="AW29" s="275"/>
       <c r="AX29" s="275"/>
       <c r="AY29" s="275"/>
-      <c r="AZ29" s="278"/>
+      <c r="AZ29" s="276"/>
     </row>
     <row r="30" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A30" s="134"/>
@@ -18892,13 +18891,13 @@
       <c r="AZ38" s="142"/>
     </row>
     <row r="39" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A39" s="274" t="s">
+      <c r="A39" s="277" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="275"/>
       <c r="C39" s="275"/>
       <c r="D39" s="275"/>
-      <c r="E39" s="276"/>
+      <c r="E39" s="278"/>
       <c r="F39" s="133" t="s">
         <v>76</v>
       </c>
@@ -18934,7 +18933,7 @@
       <c r="AJ39" s="133"/>
       <c r="AK39" s="133"/>
       <c r="AL39" s="133"/>
-      <c r="AM39" s="277" t="s">
+      <c r="AM39" s="274" t="s">
         <v>29</v>
       </c>
       <c r="AN39" s="275"/>
@@ -18949,7 +18948,7 @@
       <c r="AW39" s="275"/>
       <c r="AX39" s="275"/>
       <c r="AY39" s="275"/>
-      <c r="AZ39" s="278"/>
+      <c r="AZ39" s="276"/>
     </row>
     <row r="40" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A40" s="134"/>
@@ -19996,13 +19995,13 @@
       <c r="AZ57" s="142"/>
     </row>
     <row r="58" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A58" s="274" t="s">
+      <c r="A58" s="277" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="275"/>
       <c r="C58" s="275"/>
       <c r="D58" s="275"/>
-      <c r="E58" s="276"/>
+      <c r="E58" s="278"/>
       <c r="F58" s="133" t="s">
         <v>78</v>
       </c>
@@ -20038,7 +20037,7 @@
       <c r="AJ58" s="133"/>
       <c r="AK58" s="133"/>
       <c r="AL58" s="133"/>
-      <c r="AM58" s="277" t="s">
+      <c r="AM58" s="274" t="s">
         <v>29</v>
       </c>
       <c r="AN58" s="275"/>
@@ -20053,7 +20052,7 @@
       <c r="AW58" s="275"/>
       <c r="AX58" s="275"/>
       <c r="AY58" s="275"/>
-      <c r="AZ58" s="278"/>
+      <c r="AZ58" s="276"/>
     </row>
     <row r="59" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A59" s="134"/>
@@ -20544,13 +20543,13 @@
       <c r="AZ66" s="142"/>
     </row>
     <row r="67" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A67" s="274" t="s">
+      <c r="A67" s="277" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="275"/>
       <c r="C67" s="275"/>
       <c r="D67" s="275"/>
-      <c r="E67" s="276"/>
+      <c r="E67" s="278"/>
       <c r="F67" s="133" t="s">
         <v>220</v>
       </c>
@@ -20586,7 +20585,7 @@
       <c r="AJ67" s="133"/>
       <c r="AK67" s="133"/>
       <c r="AL67" s="133"/>
-      <c r="AM67" s="277" t="s">
+      <c r="AM67" s="274" t="s">
         <v>29</v>
       </c>
       <c r="AN67" s="275"/>
@@ -20601,7 +20600,7 @@
       <c r="AW67" s="275"/>
       <c r="AX67" s="275"/>
       <c r="AY67" s="275"/>
-      <c r="AZ67" s="278"/>
+      <c r="AZ67" s="276"/>
     </row>
     <row r="68" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A68" s="134"/>
@@ -21092,13 +21091,13 @@
       <c r="AZ75" s="142"/>
     </row>
     <row r="76" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A76" s="274" t="s">
+      <c r="A76" s="277" t="s">
         <v>66</v>
       </c>
       <c r="B76" s="275"/>
       <c r="C76" s="275"/>
       <c r="D76" s="275"/>
-      <c r="E76" s="276"/>
+      <c r="E76" s="278"/>
       <c r="F76" s="133" t="s">
         <v>84</v>
       </c>
@@ -21134,7 +21133,7 @@
       <c r="AJ76" s="133"/>
       <c r="AK76" s="133"/>
       <c r="AL76" s="133"/>
-      <c r="AM76" s="277" t="s">
+      <c r="AM76" s="274" t="s">
         <v>29</v>
       </c>
       <c r="AN76" s="275"/>
@@ -21149,7 +21148,7 @@
       <c r="AW76" s="275"/>
       <c r="AX76" s="275"/>
       <c r="AY76" s="275"/>
-      <c r="AZ76" s="278"/>
+      <c r="AZ76" s="276"/>
     </row>
     <row r="77" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A77" s="134"/>
@@ -21371,6 +21370,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="AM76:AZ76"/>
+    <mergeCell ref="AM4:AZ4"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="AM39:AZ39"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="AM58:AZ58"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="A67:E67"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="AM67:AZ67"/>
     <mergeCell ref="AX2:AZ3"/>
@@ -21387,21 +21401,6 @@
     <mergeCell ref="AM2:AR3"/>
     <mergeCell ref="AS2:AW3"/>
     <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="AM76:AZ76"/>
-    <mergeCell ref="AM4:AZ4"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="AM39:AZ39"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="AM58:AZ58"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="A67:E67"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -21433,201 +21432,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="231" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面入出力</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="206" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="206"/>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="208" t="str">
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="228" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="206" t="s">
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="206"/>
-      <c r="AJ1" s="206"/>
-      <c r="AK1" s="206"/>
-      <c r="AL1" s="206"/>
-      <c r="AM1" s="206" t="s">
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="206"/>
-      <c r="AO1" s="206"/>
-      <c r="AP1" s="206"/>
-      <c r="AQ1" s="206"/>
-      <c r="AR1" s="206"/>
-      <c r="AS1" s="206" t="s">
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="206"/>
-      <c r="AU1" s="206"/>
-      <c r="AV1" s="206"/>
-      <c r="AW1" s="206"/>
-      <c r="AX1" s="206" t="s">
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="206"/>
+      <c r="AY1" s="229"/>
       <c r="AZ1" s="244"/>
     </row>
     <row r="2" spans="1:53" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="207" t="s">
+      <c r="A2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="210" t="str">
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="220" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="211">
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221">
         <v>42591</v>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
       <c r="AM2" s="250" t="s">
         <v>223</v>
       </c>
-      <c r="AN2" s="210"/>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="210"/>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="216"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="210"/>
-      <c r="AZ2" s="214"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="220"/>
+      <c r="AR2" s="220"/>
+      <c r="AS2" s="226"/>
+      <c r="AT2" s="226"/>
+      <c r="AU2" s="226"/>
+      <c r="AV2" s="226"/>
+      <c r="AW2" s="226"/>
+      <c r="AX2" s="220"/>
+      <c r="AY2" s="220"/>
+      <c r="AZ2" s="224"/>
     </row>
     <row r="3" spans="1:53" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="262" t="str">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="258" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="263" t="s">
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="263"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="262" t="str">
+      <c r="O3" s="259"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="259"/>
+      <c r="S3" s="258" t="str">
         <f>設定情報!$C$5</f>
         <v>ユーザ一覧画面</v>
       </c>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="262"/>
-      <c r="AA3" s="262"/>
-      <c r="AB3" s="262"/>
-      <c r="AC3" s="262"/>
-      <c r="AD3" s="262"/>
-      <c r="AE3" s="262"/>
-      <c r="AF3" s="262"/>
-      <c r="AG3" s="266"/>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="266"/>
-      <c r="AJ3" s="266"/>
-      <c r="AK3" s="266"/>
-      <c r="AL3" s="266"/>
-      <c r="AM3" s="262"/>
-      <c r="AN3" s="262"/>
-      <c r="AO3" s="262"/>
-      <c r="AP3" s="262"/>
-      <c r="AQ3" s="262"/>
-      <c r="AR3" s="262"/>
-      <c r="AS3" s="267"/>
-      <c r="AT3" s="267"/>
-      <c r="AU3" s="267"/>
-      <c r="AV3" s="267"/>
-      <c r="AW3" s="267"/>
-      <c r="AX3" s="262"/>
-      <c r="AY3" s="262"/>
-      <c r="AZ3" s="264"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="258"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="258"/>
+      <c r="AC3" s="258"/>
+      <c r="AD3" s="258"/>
+      <c r="AE3" s="258"/>
+      <c r="AF3" s="258"/>
+      <c r="AG3" s="262"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="262"/>
+      <c r="AJ3" s="262"/>
+      <c r="AK3" s="262"/>
+      <c r="AL3" s="262"/>
+      <c r="AM3" s="258"/>
+      <c r="AN3" s="258"/>
+      <c r="AO3" s="258"/>
+      <c r="AP3" s="258"/>
+      <c r="AQ3" s="258"/>
+      <c r="AR3" s="258"/>
+      <c r="AS3" s="263"/>
+      <c r="AT3" s="263"/>
+      <c r="AU3" s="263"/>
+      <c r="AV3" s="263"/>
+      <c r="AW3" s="263"/>
+      <c r="AX3" s="258"/>
+      <c r="AY3" s="258"/>
+      <c r="AZ3" s="260"/>
     </row>
     <row r="4" spans="1:53" ht="13.5" customHeight="1">
       <c r="A4" s="146" t="s">
@@ -24413,13 +24412,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AX1:AZ1"/>
@@ -24430,6 +24422,13 @@
     <mergeCell ref="AS2:AW3"/>
     <mergeCell ref="AX2:AZ3"/>
     <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -24461,201 +24460,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="231" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>検証</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="206" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="206"/>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="208" t="str">
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="228" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="206" t="s">
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="206"/>
-      <c r="AJ1" s="206"/>
-      <c r="AK1" s="206"/>
-      <c r="AL1" s="206"/>
-      <c r="AM1" s="206" t="s">
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="206"/>
-      <c r="AO1" s="206"/>
-      <c r="AP1" s="206"/>
-      <c r="AQ1" s="206"/>
-      <c r="AR1" s="206"/>
-      <c r="AS1" s="206" t="s">
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="206"/>
-      <c r="AU1" s="206"/>
-      <c r="AV1" s="206"/>
-      <c r="AW1" s="206"/>
-      <c r="AX1" s="206" t="s">
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="206"/>
-      <c r="AZ1" s="209"/>
+      <c r="AY1" s="229"/>
+      <c r="AZ1" s="230"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="207" t="s">
+      <c r="A2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="210" t="str">
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="220" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="211">
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221">
         <v>42591</v>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
       <c r="AM2" s="250" t="s">
         <v>223</v>
       </c>
-      <c r="AN2" s="210"/>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="210"/>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="216"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="210"/>
-      <c r="AZ2" s="214"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="220"/>
+      <c r="AR2" s="220"/>
+      <c r="AS2" s="226"/>
+      <c r="AT2" s="226"/>
+      <c r="AU2" s="226"/>
+      <c r="AV2" s="226"/>
+      <c r="AW2" s="226"/>
+      <c r="AX2" s="220"/>
+      <c r="AY2" s="220"/>
+      <c r="AZ2" s="224"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="192" t="s">
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="193" t="str">
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="219" t="str">
         <f>設定情報!$C$5</f>
         <v>ユーザ一覧画面</v>
       </c>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="212"/>
-      <c r="AK3" s="212"/>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="193"/>
-      <c r="AO3" s="193"/>
-      <c r="AP3" s="193"/>
-      <c r="AQ3" s="193"/>
-      <c r="AR3" s="193"/>
-      <c r="AS3" s="217"/>
-      <c r="AT3" s="217"/>
-      <c r="AU3" s="217"/>
-      <c r="AV3" s="217"/>
-      <c r="AW3" s="217"/>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="193"/>
-      <c r="AZ3" s="215"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="222"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="222"/>
+      <c r="AJ3" s="222"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="219"/>
+      <c r="AN3" s="219"/>
+      <c r="AO3" s="219"/>
+      <c r="AP3" s="219"/>
+      <c r="AQ3" s="219"/>
+      <c r="AR3" s="219"/>
+      <c r="AS3" s="227"/>
+      <c r="AT3" s="227"/>
+      <c r="AU3" s="227"/>
+      <c r="AV3" s="227"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="219"/>
+      <c r="AY3" s="219"/>
+      <c r="AZ3" s="225"/>
     </row>
     <row r="4" spans="1:52" s="24" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="18"/>
@@ -24821,1152 +24820,1152 @@
     </row>
     <row r="7" spans="1:52" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="A7" s="25"/>
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="283" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="283"/>
-      <c r="D7" s="289" t="s">
+      <c r="C7" s="285"/>
+      <c r="D7" s="291" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="290"/>
-      <c r="J7" s="290"/>
-      <c r="K7" s="290"/>
-      <c r="L7" s="290"/>
-      <c r="M7" s="290"/>
-      <c r="N7" s="290"/>
-      <c r="O7" s="290"/>
-      <c r="P7" s="290"/>
-      <c r="Q7" s="290"/>
-      <c r="R7" s="290"/>
-      <c r="S7" s="290"/>
-      <c r="T7" s="290"/>
-      <c r="U7" s="290"/>
-      <c r="V7" s="290"/>
-      <c r="W7" s="290"/>
-      <c r="X7" s="290"/>
-      <c r="Y7" s="291"/>
-      <c r="Z7" s="281" t="s">
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="292"/>
+      <c r="L7" s="292"/>
+      <c r="M7" s="292"/>
+      <c r="N7" s="292"/>
+      <c r="O7" s="292"/>
+      <c r="P7" s="292"/>
+      <c r="Q7" s="292"/>
+      <c r="R7" s="292"/>
+      <c r="S7" s="292"/>
+      <c r="T7" s="292"/>
+      <c r="U7" s="292"/>
+      <c r="V7" s="292"/>
+      <c r="W7" s="292"/>
+      <c r="X7" s="292"/>
+      <c r="Y7" s="293"/>
+      <c r="Z7" s="283" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" s="282"/>
-      <c r="AB7" s="282"/>
-      <c r="AC7" s="283"/>
-      <c r="AD7" s="281" t="s">
+      <c r="AA7" s="284"/>
+      <c r="AB7" s="284"/>
+      <c r="AC7" s="285"/>
+      <c r="AD7" s="283" t="s">
         <v>100</v>
       </c>
-      <c r="AE7" s="282"/>
-      <c r="AF7" s="282"/>
-      <c r="AG7" s="282"/>
-      <c r="AH7" s="282"/>
-      <c r="AI7" s="282"/>
-      <c r="AJ7" s="282"/>
-      <c r="AK7" s="282"/>
-      <c r="AL7" s="282"/>
-      <c r="AM7" s="282"/>
-      <c r="AN7" s="282"/>
-      <c r="AO7" s="282"/>
-      <c r="AP7" s="282"/>
-      <c r="AQ7" s="282"/>
-      <c r="AR7" s="282"/>
-      <c r="AS7" s="282"/>
-      <c r="AT7" s="282"/>
-      <c r="AU7" s="282"/>
-      <c r="AV7" s="282"/>
-      <c r="AW7" s="282"/>
-      <c r="AX7" s="282"/>
-      <c r="AY7" s="283"/>
+      <c r="AE7" s="284"/>
+      <c r="AF7" s="284"/>
+      <c r="AG7" s="284"/>
+      <c r="AH7" s="284"/>
+      <c r="AI7" s="284"/>
+      <c r="AJ7" s="284"/>
+      <c r="AK7" s="284"/>
+      <c r="AL7" s="284"/>
+      <c r="AM7" s="284"/>
+      <c r="AN7" s="284"/>
+      <c r="AO7" s="284"/>
+      <c r="AP7" s="284"/>
+      <c r="AQ7" s="284"/>
+      <c r="AR7" s="284"/>
+      <c r="AS7" s="284"/>
+      <c r="AT7" s="284"/>
+      <c r="AU7" s="284"/>
+      <c r="AV7" s="284"/>
+      <c r="AW7" s="284"/>
+      <c r="AX7" s="284"/>
+      <c r="AY7" s="285"/>
       <c r="AZ7" s="27"/>
     </row>
     <row r="8" spans="1:52" s="24" customFormat="1" ht="31.5" hidden="1" customHeight="1">
       <c r="A8" s="25"/>
-      <c r="B8" s="287"/>
-      <c r="C8" s="288"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="285"/>
-      <c r="M8" s="285"/>
-      <c r="N8" s="285"/>
-      <c r="O8" s="285"/>
-      <c r="P8" s="285"/>
-      <c r="Q8" s="285"/>
-      <c r="R8" s="285"/>
-      <c r="S8" s="285"/>
-      <c r="T8" s="285"/>
-      <c r="U8" s="285"/>
-      <c r="V8" s="285"/>
-      <c r="W8" s="285"/>
-      <c r="X8" s="285"/>
-      <c r="Y8" s="286"/>
-      <c r="Z8" s="284"/>
-      <c r="AA8" s="285"/>
-      <c r="AB8" s="285"/>
-      <c r="AC8" s="286"/>
-      <c r="AD8" s="284"/>
-      <c r="AE8" s="285"/>
-      <c r="AF8" s="285"/>
-      <c r="AG8" s="285"/>
-      <c r="AH8" s="285"/>
-      <c r="AI8" s="285"/>
-      <c r="AJ8" s="285"/>
-      <c r="AK8" s="285"/>
-      <c r="AL8" s="285"/>
-      <c r="AM8" s="285"/>
-      <c r="AN8" s="285"/>
-      <c r="AO8" s="285"/>
-      <c r="AP8" s="285"/>
-      <c r="AQ8" s="285"/>
-      <c r="AR8" s="285"/>
-      <c r="AS8" s="285"/>
-      <c r="AT8" s="285"/>
-      <c r="AU8" s="285"/>
-      <c r="AV8" s="285"/>
-      <c r="AW8" s="285"/>
-      <c r="AX8" s="285"/>
-      <c r="AY8" s="286"/>
+      <c r="B8" s="289"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
+      <c r="K8" s="287"/>
+      <c r="L8" s="287"/>
+      <c r="M8" s="287"/>
+      <c r="N8" s="287"/>
+      <c r="O8" s="287"/>
+      <c r="P8" s="287"/>
+      <c r="Q8" s="287"/>
+      <c r="R8" s="287"/>
+      <c r="S8" s="287"/>
+      <c r="T8" s="287"/>
+      <c r="U8" s="287"/>
+      <c r="V8" s="287"/>
+      <c r="W8" s="287"/>
+      <c r="X8" s="287"/>
+      <c r="Y8" s="288"/>
+      <c r="Z8" s="286"/>
+      <c r="AA8" s="287"/>
+      <c r="AB8" s="287"/>
+      <c r="AC8" s="288"/>
+      <c r="AD8" s="286"/>
+      <c r="AE8" s="287"/>
+      <c r="AF8" s="287"/>
+      <c r="AG8" s="287"/>
+      <c r="AH8" s="287"/>
+      <c r="AI8" s="287"/>
+      <c r="AJ8" s="287"/>
+      <c r="AK8" s="287"/>
+      <c r="AL8" s="287"/>
+      <c r="AM8" s="287"/>
+      <c r="AN8" s="287"/>
+      <c r="AO8" s="287"/>
+      <c r="AP8" s="287"/>
+      <c r="AQ8" s="287"/>
+      <c r="AR8" s="287"/>
+      <c r="AS8" s="287"/>
+      <c r="AT8" s="287"/>
+      <c r="AU8" s="287"/>
+      <c r="AV8" s="287"/>
+      <c r="AW8" s="287"/>
+      <c r="AX8" s="287"/>
+      <c r="AY8" s="288"/>
       <c r="AZ8" s="92"/>
     </row>
     <row r="9" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="287">
+      <c r="B9" s="289">
         <v>1</v>
       </c>
-      <c r="C9" s="288"/>
-      <c r="D9" s="284" t="s">
+      <c r="C9" s="290"/>
+      <c r="D9" s="286" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="285"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="285"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="285"/>
-      <c r="L9" s="285"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="285"/>
-      <c r="P9" s="285"/>
-      <c r="Q9" s="285"/>
-      <c r="R9" s="285"/>
-      <c r="S9" s="285"/>
-      <c r="T9" s="285"/>
-      <c r="U9" s="285"/>
-      <c r="V9" s="285"/>
-      <c r="W9" s="285"/>
-      <c r="X9" s="285"/>
-      <c r="Y9" s="286"/>
-      <c r="Z9" s="284" t="s">
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="287"/>
+      <c r="H9" s="287"/>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="287"/>
+      <c r="M9" s="287"/>
+      <c r="N9" s="287"/>
+      <c r="O9" s="287"/>
+      <c r="P9" s="287"/>
+      <c r="Q9" s="287"/>
+      <c r="R9" s="287"/>
+      <c r="S9" s="287"/>
+      <c r="T9" s="287"/>
+      <c r="U9" s="287"/>
+      <c r="V9" s="287"/>
+      <c r="W9" s="287"/>
+      <c r="X9" s="287"/>
+      <c r="Y9" s="288"/>
+      <c r="Z9" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="AA9" s="285"/>
-      <c r="AB9" s="285"/>
-      <c r="AC9" s="286"/>
-      <c r="AD9" s="284" t="s">
+      <c r="AA9" s="287"/>
+      <c r="AB9" s="287"/>
+      <c r="AC9" s="288"/>
+      <c r="AD9" s="286" t="s">
         <v>210</v>
       </c>
-      <c r="AE9" s="285"/>
-      <c r="AF9" s="285"/>
-      <c r="AG9" s="285"/>
-      <c r="AH9" s="285"/>
-      <c r="AI9" s="285"/>
-      <c r="AJ9" s="285"/>
-      <c r="AK9" s="285"/>
-      <c r="AL9" s="285"/>
-      <c r="AM9" s="285"/>
-      <c r="AN9" s="285"/>
-      <c r="AO9" s="285"/>
-      <c r="AP9" s="285"/>
-      <c r="AQ9" s="285"/>
-      <c r="AR9" s="285"/>
-      <c r="AS9" s="285"/>
-      <c r="AT9" s="285"/>
-      <c r="AU9" s="285"/>
-      <c r="AV9" s="285"/>
-      <c r="AW9" s="285"/>
-      <c r="AX9" s="285"/>
-      <c r="AY9" s="286"/>
+      <c r="AE9" s="287"/>
+      <c r="AF9" s="287"/>
+      <c r="AG9" s="287"/>
+      <c r="AH9" s="287"/>
+      <c r="AI9" s="287"/>
+      <c r="AJ9" s="287"/>
+      <c r="AK9" s="287"/>
+      <c r="AL9" s="287"/>
+      <c r="AM9" s="287"/>
+      <c r="AN9" s="287"/>
+      <c r="AO9" s="287"/>
+      <c r="AP9" s="287"/>
+      <c r="AQ9" s="287"/>
+      <c r="AR9" s="287"/>
+      <c r="AS9" s="287"/>
+      <c r="AT9" s="287"/>
+      <c r="AU9" s="287"/>
+      <c r="AV9" s="287"/>
+      <c r="AW9" s="287"/>
+      <c r="AX9" s="287"/>
+      <c r="AY9" s="288"/>
       <c r="AZ9" s="92"/>
     </row>
     <row r="10" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="25"/>
-      <c r="B10" s="279"/>
-      <c r="C10" s="280"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="198"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="198"/>
-      <c r="U10" s="198"/>
-      <c r="V10" s="198"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="198"/>
-      <c r="Y10" s="199"/>
-      <c r="Z10" s="218"/>
-      <c r="AA10" s="198"/>
-      <c r="AB10" s="198"/>
-      <c r="AC10" s="199"/>
-      <c r="AD10" s="218"/>
-      <c r="AE10" s="198"/>
-      <c r="AF10" s="198"/>
-      <c r="AG10" s="198"/>
-      <c r="AH10" s="198"/>
-      <c r="AI10" s="198"/>
-      <c r="AJ10" s="198"/>
-      <c r="AK10" s="198"/>
-      <c r="AL10" s="198"/>
-      <c r="AM10" s="198"/>
-      <c r="AN10" s="198"/>
-      <c r="AO10" s="198"/>
-      <c r="AP10" s="198"/>
-      <c r="AQ10" s="198"/>
-      <c r="AR10" s="198"/>
-      <c r="AS10" s="198"/>
-      <c r="AT10" s="198"/>
-      <c r="AU10" s="198"/>
-      <c r="AV10" s="198"/>
-      <c r="AW10" s="198"/>
-      <c r="AX10" s="198"/>
-      <c r="AY10" s="199"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="282"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="185"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="185"/>
+      <c r="T10" s="185"/>
+      <c r="U10" s="185"/>
+      <c r="V10" s="185"/>
+      <c r="W10" s="185"/>
+      <c r="X10" s="185"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="184"/>
+      <c r="AA10" s="185"/>
+      <c r="AB10" s="185"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="185"/>
+      <c r="AF10" s="185"/>
+      <c r="AG10" s="185"/>
+      <c r="AH10" s="185"/>
+      <c r="AI10" s="185"/>
+      <c r="AJ10" s="185"/>
+      <c r="AK10" s="185"/>
+      <c r="AL10" s="185"/>
+      <c r="AM10" s="185"/>
+      <c r="AN10" s="185"/>
+      <c r="AO10" s="185"/>
+      <c r="AP10" s="185"/>
+      <c r="AQ10" s="185"/>
+      <c r="AR10" s="185"/>
+      <c r="AS10" s="185"/>
+      <c r="AT10" s="185"/>
+      <c r="AU10" s="185"/>
+      <c r="AV10" s="185"/>
+      <c r="AW10" s="185"/>
+      <c r="AX10" s="185"/>
+      <c r="AY10" s="186"/>
       <c r="AZ10" s="92"/>
     </row>
     <row r="11" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="279"/>
-      <c r="C11" s="280"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="198"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198"/>
-      <c r="V11" s="198"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="199"/>
-      <c r="Z11" s="218"/>
-      <c r="AA11" s="198"/>
-      <c r="AB11" s="198"/>
-      <c r="AC11" s="199"/>
-      <c r="AD11" s="218"/>
-      <c r="AE11" s="198"/>
-      <c r="AF11" s="198"/>
-      <c r="AG11" s="198"/>
-      <c r="AH11" s="198"/>
-      <c r="AI11" s="198"/>
-      <c r="AJ11" s="198"/>
-      <c r="AK11" s="198"/>
-      <c r="AL11" s="198"/>
-      <c r="AM11" s="198"/>
-      <c r="AN11" s="198"/>
-      <c r="AO11" s="198"/>
-      <c r="AP11" s="198"/>
-      <c r="AQ11" s="198"/>
-      <c r="AR11" s="198"/>
-      <c r="AS11" s="198"/>
-      <c r="AT11" s="198"/>
-      <c r="AU11" s="198"/>
-      <c r="AV11" s="198"/>
-      <c r="AW11" s="198"/>
-      <c r="AX11" s="198"/>
-      <c r="AY11" s="199"/>
+      <c r="B11" s="281"/>
+      <c r="C11" s="282"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="185"/>
+      <c r="T11" s="185"/>
+      <c r="U11" s="185"/>
+      <c r="V11" s="185"/>
+      <c r="W11" s="185"/>
+      <c r="X11" s="185"/>
+      <c r="Y11" s="186"/>
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="185"/>
+      <c r="AB11" s="185"/>
+      <c r="AC11" s="186"/>
+      <c r="AD11" s="184"/>
+      <c r="AE11" s="185"/>
+      <c r="AF11" s="185"/>
+      <c r="AG11" s="185"/>
+      <c r="AH11" s="185"/>
+      <c r="AI11" s="185"/>
+      <c r="AJ11" s="185"/>
+      <c r="AK11" s="185"/>
+      <c r="AL11" s="185"/>
+      <c r="AM11" s="185"/>
+      <c r="AN11" s="185"/>
+      <c r="AO11" s="185"/>
+      <c r="AP11" s="185"/>
+      <c r="AQ11" s="185"/>
+      <c r="AR11" s="185"/>
+      <c r="AS11" s="185"/>
+      <c r="AT11" s="185"/>
+      <c r="AU11" s="185"/>
+      <c r="AV11" s="185"/>
+      <c r="AW11" s="185"/>
+      <c r="AX11" s="185"/>
+      <c r="AY11" s="186"/>
       <c r="AZ11" s="92"/>
     </row>
     <row r="12" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="25"/>
-      <c r="B12" s="279"/>
-      <c r="C12" s="280"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="198"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="198"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="218"/>
-      <c r="AA12" s="198"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="199"/>
-      <c r="AD12" s="218"/>
-      <c r="AE12" s="198"/>
-      <c r="AF12" s="198"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="198"/>
-      <c r="AI12" s="198"/>
-      <c r="AJ12" s="198"/>
-      <c r="AK12" s="198"/>
-      <c r="AL12" s="198"/>
-      <c r="AM12" s="198"/>
-      <c r="AN12" s="198"/>
-      <c r="AO12" s="198"/>
-      <c r="AP12" s="198"/>
-      <c r="AQ12" s="198"/>
-      <c r="AR12" s="198"/>
-      <c r="AS12" s="198"/>
-      <c r="AT12" s="198"/>
-      <c r="AU12" s="198"/>
-      <c r="AV12" s="198"/>
-      <c r="AW12" s="198"/>
-      <c r="AX12" s="198"/>
-      <c r="AY12" s="199"/>
+      <c r="B12" s="281"/>
+      <c r="C12" s="282"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
+      <c r="U12" s="185"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="185"/>
+      <c r="Y12" s="186"/>
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="185"/>
+      <c r="AB12" s="185"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="184"/>
+      <c r="AE12" s="185"/>
+      <c r="AF12" s="185"/>
+      <c r="AG12" s="185"/>
+      <c r="AH12" s="185"/>
+      <c r="AI12" s="185"/>
+      <c r="AJ12" s="185"/>
+      <c r="AK12" s="185"/>
+      <c r="AL12" s="185"/>
+      <c r="AM12" s="185"/>
+      <c r="AN12" s="185"/>
+      <c r="AO12" s="185"/>
+      <c r="AP12" s="185"/>
+      <c r="AQ12" s="185"/>
+      <c r="AR12" s="185"/>
+      <c r="AS12" s="185"/>
+      <c r="AT12" s="185"/>
+      <c r="AU12" s="185"/>
+      <c r="AV12" s="185"/>
+      <c r="AW12" s="185"/>
+      <c r="AX12" s="185"/>
+      <c r="AY12" s="186"/>
       <c r="AZ12" s="92"/>
     </row>
     <row r="13" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="25"/>
-      <c r="B13" s="279"/>
-      <c r="C13" s="280"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="198"/>
-      <c r="R13" s="198"/>
-      <c r="S13" s="198"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="198"/>
-      <c r="X13" s="198"/>
-      <c r="Y13" s="199"/>
-      <c r="Z13" s="218"/>
-      <c r="AA13" s="198"/>
-      <c r="AB13" s="198"/>
-      <c r="AC13" s="199"/>
-      <c r="AD13" s="218"/>
-      <c r="AE13" s="198"/>
-      <c r="AF13" s="198"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="198"/>
-      <c r="AI13" s="198"/>
-      <c r="AJ13" s="198"/>
-      <c r="AK13" s="198"/>
-      <c r="AL13" s="198"/>
-      <c r="AM13" s="198"/>
-      <c r="AN13" s="198"/>
-      <c r="AO13" s="198"/>
-      <c r="AP13" s="198"/>
-      <c r="AQ13" s="198"/>
-      <c r="AR13" s="198"/>
-      <c r="AS13" s="198"/>
-      <c r="AT13" s="198"/>
-      <c r="AU13" s="198"/>
-      <c r="AV13" s="198"/>
-      <c r="AW13" s="198"/>
-      <c r="AX13" s="198"/>
-      <c r="AY13" s="199"/>
+      <c r="B13" s="281"/>
+      <c r="C13" s="282"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="185"/>
+      <c r="L13" s="185"/>
+      <c r="M13" s="185"/>
+      <c r="N13" s="185"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="185"/>
+      <c r="R13" s="185"/>
+      <c r="S13" s="185"/>
+      <c r="T13" s="185"/>
+      <c r="U13" s="185"/>
+      <c r="V13" s="185"/>
+      <c r="W13" s="185"/>
+      <c r="X13" s="185"/>
+      <c r="Y13" s="186"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="185"/>
+      <c r="AB13" s="185"/>
+      <c r="AC13" s="186"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="185"/>
+      <c r="AG13" s="185"/>
+      <c r="AH13" s="185"/>
+      <c r="AI13" s="185"/>
+      <c r="AJ13" s="185"/>
+      <c r="AK13" s="185"/>
+      <c r="AL13" s="185"/>
+      <c r="AM13" s="185"/>
+      <c r="AN13" s="185"/>
+      <c r="AO13" s="185"/>
+      <c r="AP13" s="185"/>
+      <c r="AQ13" s="185"/>
+      <c r="AR13" s="185"/>
+      <c r="AS13" s="185"/>
+      <c r="AT13" s="185"/>
+      <c r="AU13" s="185"/>
+      <c r="AV13" s="185"/>
+      <c r="AW13" s="185"/>
+      <c r="AX13" s="185"/>
+      <c r="AY13" s="186"/>
       <c r="AZ13" s="92"/>
     </row>
     <row r="14" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="25"/>
-      <c r="B14" s="279"/>
-      <c r="C14" s="280"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="198"/>
-      <c r="R14" s="198"/>
-      <c r="S14" s="198"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="198"/>
-      <c r="X14" s="198"/>
-      <c r="Y14" s="199"/>
-      <c r="Z14" s="218"/>
-      <c r="AA14" s="198"/>
-      <c r="AB14" s="198"/>
-      <c r="AC14" s="199"/>
-      <c r="AD14" s="218"/>
-      <c r="AE14" s="198"/>
-      <c r="AF14" s="198"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="198"/>
-      <c r="AI14" s="198"/>
-      <c r="AJ14" s="198"/>
-      <c r="AK14" s="198"/>
-      <c r="AL14" s="198"/>
-      <c r="AM14" s="198"/>
-      <c r="AN14" s="198"/>
-      <c r="AO14" s="198"/>
-      <c r="AP14" s="198"/>
-      <c r="AQ14" s="198"/>
-      <c r="AR14" s="198"/>
-      <c r="AS14" s="198"/>
-      <c r="AT14" s="198"/>
-      <c r="AU14" s="198"/>
-      <c r="AV14" s="198"/>
-      <c r="AW14" s="198"/>
-      <c r="AX14" s="198"/>
-      <c r="AY14" s="199"/>
+      <c r="B14" s="281"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="185"/>
+      <c r="L14" s="185"/>
+      <c r="M14" s="185"/>
+      <c r="N14" s="185"/>
+      <c r="O14" s="185"/>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="185"/>
+      <c r="S14" s="185"/>
+      <c r="T14" s="185"/>
+      <c r="U14" s="185"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="185"/>
+      <c r="X14" s="185"/>
+      <c r="Y14" s="186"/>
+      <c r="Z14" s="184"/>
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="185"/>
+      <c r="AC14" s="186"/>
+      <c r="AD14" s="184"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="185"/>
+      <c r="AG14" s="185"/>
+      <c r="AH14" s="185"/>
+      <c r="AI14" s="185"/>
+      <c r="AJ14" s="185"/>
+      <c r="AK14" s="185"/>
+      <c r="AL14" s="185"/>
+      <c r="AM14" s="185"/>
+      <c r="AN14" s="185"/>
+      <c r="AO14" s="185"/>
+      <c r="AP14" s="185"/>
+      <c r="AQ14" s="185"/>
+      <c r="AR14" s="185"/>
+      <c r="AS14" s="185"/>
+      <c r="AT14" s="185"/>
+      <c r="AU14" s="185"/>
+      <c r="AV14" s="185"/>
+      <c r="AW14" s="185"/>
+      <c r="AX14" s="185"/>
+      <c r="AY14" s="186"/>
       <c r="AZ14" s="92"/>
     </row>
     <row r="15" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A15" s="25"/>
-      <c r="B15" s="279"/>
-      <c r="C15" s="280"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="198"/>
-      <c r="Q15" s="198"/>
-      <c r="R15" s="198"/>
-      <c r="S15" s="198"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="198"/>
-      <c r="X15" s="198"/>
-      <c r="Y15" s="199"/>
-      <c r="Z15" s="218"/>
-      <c r="AA15" s="198"/>
-      <c r="AB15" s="198"/>
-      <c r="AC15" s="199"/>
-      <c r="AD15" s="218"/>
-      <c r="AE15" s="198"/>
-      <c r="AF15" s="198"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="198"/>
-      <c r="AI15" s="198"/>
-      <c r="AJ15" s="198"/>
-      <c r="AK15" s="198"/>
-      <c r="AL15" s="198"/>
-      <c r="AM15" s="198"/>
-      <c r="AN15" s="198"/>
-      <c r="AO15" s="198"/>
-      <c r="AP15" s="198"/>
-      <c r="AQ15" s="198"/>
-      <c r="AR15" s="198"/>
-      <c r="AS15" s="198"/>
-      <c r="AT15" s="198"/>
-      <c r="AU15" s="198"/>
-      <c r="AV15" s="198"/>
-      <c r="AW15" s="198"/>
-      <c r="AX15" s="198"/>
-      <c r="AY15" s="199"/>
+      <c r="B15" s="281"/>
+      <c r="C15" s="282"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="185"/>
+      <c r="R15" s="185"/>
+      <c r="S15" s="185"/>
+      <c r="T15" s="185"/>
+      <c r="U15" s="185"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="185"/>
+      <c r="X15" s="185"/>
+      <c r="Y15" s="186"/>
+      <c r="Z15" s="184"/>
+      <c r="AA15" s="185"/>
+      <c r="AB15" s="185"/>
+      <c r="AC15" s="186"/>
+      <c r="AD15" s="184"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="185"/>
+      <c r="AG15" s="185"/>
+      <c r="AH15" s="185"/>
+      <c r="AI15" s="185"/>
+      <c r="AJ15" s="185"/>
+      <c r="AK15" s="185"/>
+      <c r="AL15" s="185"/>
+      <c r="AM15" s="185"/>
+      <c r="AN15" s="185"/>
+      <c r="AO15" s="185"/>
+      <c r="AP15" s="185"/>
+      <c r="AQ15" s="185"/>
+      <c r="AR15" s="185"/>
+      <c r="AS15" s="185"/>
+      <c r="AT15" s="185"/>
+      <c r="AU15" s="185"/>
+      <c r="AV15" s="185"/>
+      <c r="AW15" s="185"/>
+      <c r="AX15" s="185"/>
+      <c r="AY15" s="186"/>
       <c r="AZ15" s="92"/>
     </row>
     <row r="16" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="25"/>
-      <c r="B16" s="279"/>
-      <c r="C16" s="280"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="198"/>
-      <c r="P16" s="198"/>
-      <c r="Q16" s="198"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="198"/>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="198"/>
-      <c r="X16" s="198"/>
-      <c r="Y16" s="199"/>
-      <c r="Z16" s="218"/>
-      <c r="AA16" s="198"/>
-      <c r="AB16" s="198"/>
-      <c r="AC16" s="199"/>
-      <c r="AD16" s="218"/>
-      <c r="AE16" s="198"/>
-      <c r="AF16" s="198"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="198"/>
-      <c r="AI16" s="198"/>
-      <c r="AJ16" s="198"/>
-      <c r="AK16" s="198"/>
-      <c r="AL16" s="198"/>
-      <c r="AM16" s="198"/>
-      <c r="AN16" s="198"/>
-      <c r="AO16" s="198"/>
-      <c r="AP16" s="198"/>
-      <c r="AQ16" s="198"/>
-      <c r="AR16" s="198"/>
-      <c r="AS16" s="198"/>
-      <c r="AT16" s="198"/>
-      <c r="AU16" s="198"/>
-      <c r="AV16" s="198"/>
-      <c r="AW16" s="198"/>
-      <c r="AX16" s="198"/>
-      <c r="AY16" s="199"/>
+      <c r="B16" s="281"/>
+      <c r="C16" s="282"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="185"/>
+      <c r="L16" s="185"/>
+      <c r="M16" s="185"/>
+      <c r="N16" s="185"/>
+      <c r="O16" s="185"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="185"/>
+      <c r="R16" s="185"/>
+      <c r="S16" s="185"/>
+      <c r="T16" s="185"/>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="185"/>
+      <c r="X16" s="185"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="184"/>
+      <c r="AA16" s="185"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="186"/>
+      <c r="AD16" s="184"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="185"/>
+      <c r="AG16" s="185"/>
+      <c r="AH16" s="185"/>
+      <c r="AI16" s="185"/>
+      <c r="AJ16" s="185"/>
+      <c r="AK16" s="185"/>
+      <c r="AL16" s="185"/>
+      <c r="AM16" s="185"/>
+      <c r="AN16" s="185"/>
+      <c r="AO16" s="185"/>
+      <c r="AP16" s="185"/>
+      <c r="AQ16" s="185"/>
+      <c r="AR16" s="185"/>
+      <c r="AS16" s="185"/>
+      <c r="AT16" s="185"/>
+      <c r="AU16" s="185"/>
+      <c r="AV16" s="185"/>
+      <c r="AW16" s="185"/>
+      <c r="AX16" s="185"/>
+      <c r="AY16" s="186"/>
       <c r="AZ16" s="92"/>
     </row>
     <row r="17" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="25"/>
-      <c r="B17" s="279"/>
-      <c r="C17" s="280"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
-      <c r="O17" s="198"/>
-      <c r="P17" s="198"/>
-      <c r="Q17" s="198"/>
-      <c r="R17" s="198"/>
-      <c r="S17" s="198"/>
-      <c r="T17" s="198"/>
-      <c r="U17" s="198"/>
-      <c r="V17" s="198"/>
-      <c r="W17" s="198"/>
-      <c r="X17" s="198"/>
-      <c r="Y17" s="199"/>
-      <c r="Z17" s="218"/>
-      <c r="AA17" s="198"/>
-      <c r="AB17" s="198"/>
-      <c r="AC17" s="199"/>
-      <c r="AD17" s="218"/>
-      <c r="AE17" s="198"/>
-      <c r="AF17" s="198"/>
-      <c r="AG17" s="198"/>
-      <c r="AH17" s="198"/>
-      <c r="AI17" s="198"/>
-      <c r="AJ17" s="198"/>
-      <c r="AK17" s="198"/>
-      <c r="AL17" s="198"/>
-      <c r="AM17" s="198"/>
-      <c r="AN17" s="198"/>
-      <c r="AO17" s="198"/>
-      <c r="AP17" s="198"/>
-      <c r="AQ17" s="198"/>
-      <c r="AR17" s="198"/>
-      <c r="AS17" s="198"/>
-      <c r="AT17" s="198"/>
-      <c r="AU17" s="198"/>
-      <c r="AV17" s="198"/>
-      <c r="AW17" s="198"/>
-      <c r="AX17" s="198"/>
-      <c r="AY17" s="199"/>
+      <c r="B17" s="281"/>
+      <c r="C17" s="282"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="185"/>
+      <c r="L17" s="185"/>
+      <c r="M17" s="185"/>
+      <c r="N17" s="185"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="185"/>
+      <c r="W17" s="185"/>
+      <c r="X17" s="185"/>
+      <c r="Y17" s="186"/>
+      <c r="Z17" s="184"/>
+      <c r="AA17" s="185"/>
+      <c r="AB17" s="185"/>
+      <c r="AC17" s="186"/>
+      <c r="AD17" s="184"/>
+      <c r="AE17" s="185"/>
+      <c r="AF17" s="185"/>
+      <c r="AG17" s="185"/>
+      <c r="AH17" s="185"/>
+      <c r="AI17" s="185"/>
+      <c r="AJ17" s="185"/>
+      <c r="AK17" s="185"/>
+      <c r="AL17" s="185"/>
+      <c r="AM17" s="185"/>
+      <c r="AN17" s="185"/>
+      <c r="AO17" s="185"/>
+      <c r="AP17" s="185"/>
+      <c r="AQ17" s="185"/>
+      <c r="AR17" s="185"/>
+      <c r="AS17" s="185"/>
+      <c r="AT17" s="185"/>
+      <c r="AU17" s="185"/>
+      <c r="AV17" s="185"/>
+      <c r="AW17" s="185"/>
+      <c r="AX17" s="185"/>
+      <c r="AY17" s="186"/>
       <c r="AZ17" s="92"/>
     </row>
     <row r="18" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="25"/>
-      <c r="B18" s="279"/>
-      <c r="C18" s="280"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
-      <c r="O18" s="198"/>
-      <c r="P18" s="198"/>
-      <c r="Q18" s="198"/>
-      <c r="R18" s="198"/>
-      <c r="S18" s="198"/>
-      <c r="T18" s="198"/>
-      <c r="U18" s="198"/>
-      <c r="V18" s="198"/>
-      <c r="W18" s="198"/>
-      <c r="X18" s="198"/>
-      <c r="Y18" s="199"/>
-      <c r="Z18" s="218"/>
-      <c r="AA18" s="198"/>
-      <c r="AB18" s="198"/>
-      <c r="AC18" s="199"/>
-      <c r="AD18" s="218"/>
-      <c r="AE18" s="198"/>
-      <c r="AF18" s="198"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="198"/>
-      <c r="AI18" s="198"/>
-      <c r="AJ18" s="198"/>
-      <c r="AK18" s="198"/>
-      <c r="AL18" s="198"/>
-      <c r="AM18" s="198"/>
-      <c r="AN18" s="198"/>
-      <c r="AO18" s="198"/>
-      <c r="AP18" s="198"/>
-      <c r="AQ18" s="198"/>
-      <c r="AR18" s="198"/>
-      <c r="AS18" s="198"/>
-      <c r="AT18" s="198"/>
-      <c r="AU18" s="198"/>
-      <c r="AV18" s="198"/>
-      <c r="AW18" s="198"/>
-      <c r="AX18" s="198"/>
-      <c r="AY18" s="199"/>
+      <c r="B18" s="281"/>
+      <c r="C18" s="282"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="185"/>
+      <c r="N18" s="185"/>
+      <c r="O18" s="185"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="185"/>
+      <c r="S18" s="185"/>
+      <c r="T18" s="185"/>
+      <c r="U18" s="185"/>
+      <c r="V18" s="185"/>
+      <c r="W18" s="185"/>
+      <c r="X18" s="185"/>
+      <c r="Y18" s="186"/>
+      <c r="Z18" s="184"/>
+      <c r="AA18" s="185"/>
+      <c r="AB18" s="185"/>
+      <c r="AC18" s="186"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="185"/>
+      <c r="AF18" s="185"/>
+      <c r="AG18" s="185"/>
+      <c r="AH18" s="185"/>
+      <c r="AI18" s="185"/>
+      <c r="AJ18" s="185"/>
+      <c r="AK18" s="185"/>
+      <c r="AL18" s="185"/>
+      <c r="AM18" s="185"/>
+      <c r="AN18" s="185"/>
+      <c r="AO18" s="185"/>
+      <c r="AP18" s="185"/>
+      <c r="AQ18" s="185"/>
+      <c r="AR18" s="185"/>
+      <c r="AS18" s="185"/>
+      <c r="AT18" s="185"/>
+      <c r="AU18" s="185"/>
+      <c r="AV18" s="185"/>
+      <c r="AW18" s="185"/>
+      <c r="AX18" s="185"/>
+      <c r="AY18" s="186"/>
       <c r="AZ18" s="92"/>
     </row>
     <row r="19" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="279"/>
-      <c r="C19" s="280"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="198"/>
-      <c r="P19" s="198"/>
-      <c r="Q19" s="198"/>
-      <c r="R19" s="198"/>
-      <c r="S19" s="198"/>
-      <c r="T19" s="198"/>
-      <c r="U19" s="198"/>
-      <c r="V19" s="198"/>
-      <c r="W19" s="198"/>
-      <c r="X19" s="198"/>
-      <c r="Y19" s="199"/>
-      <c r="Z19" s="218"/>
-      <c r="AA19" s="198"/>
-      <c r="AB19" s="198"/>
-      <c r="AC19" s="199"/>
-      <c r="AD19" s="218"/>
-      <c r="AE19" s="198"/>
-      <c r="AF19" s="198"/>
-      <c r="AG19" s="198"/>
-      <c r="AH19" s="198"/>
-      <c r="AI19" s="198"/>
-      <c r="AJ19" s="198"/>
-      <c r="AK19" s="198"/>
-      <c r="AL19" s="198"/>
-      <c r="AM19" s="198"/>
-      <c r="AN19" s="198"/>
-      <c r="AO19" s="198"/>
-      <c r="AP19" s="198"/>
-      <c r="AQ19" s="198"/>
-      <c r="AR19" s="198"/>
-      <c r="AS19" s="198"/>
-      <c r="AT19" s="198"/>
-      <c r="AU19" s="198"/>
-      <c r="AV19" s="198"/>
-      <c r="AW19" s="198"/>
-      <c r="AX19" s="198"/>
-      <c r="AY19" s="199"/>
+      <c r="B19" s="281"/>
+      <c r="C19" s="282"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="185"/>
+      <c r="M19" s="185"/>
+      <c r="N19" s="185"/>
+      <c r="O19" s="185"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="185"/>
+      <c r="R19" s="185"/>
+      <c r="S19" s="185"/>
+      <c r="T19" s="185"/>
+      <c r="U19" s="185"/>
+      <c r="V19" s="185"/>
+      <c r="W19" s="185"/>
+      <c r="X19" s="185"/>
+      <c r="Y19" s="186"/>
+      <c r="Z19" s="184"/>
+      <c r="AA19" s="185"/>
+      <c r="AB19" s="185"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="184"/>
+      <c r="AE19" s="185"/>
+      <c r="AF19" s="185"/>
+      <c r="AG19" s="185"/>
+      <c r="AH19" s="185"/>
+      <c r="AI19" s="185"/>
+      <c r="AJ19" s="185"/>
+      <c r="AK19" s="185"/>
+      <c r="AL19" s="185"/>
+      <c r="AM19" s="185"/>
+      <c r="AN19" s="185"/>
+      <c r="AO19" s="185"/>
+      <c r="AP19" s="185"/>
+      <c r="AQ19" s="185"/>
+      <c r="AR19" s="185"/>
+      <c r="AS19" s="185"/>
+      <c r="AT19" s="185"/>
+      <c r="AU19" s="185"/>
+      <c r="AV19" s="185"/>
+      <c r="AW19" s="185"/>
+      <c r="AX19" s="185"/>
+      <c r="AY19" s="186"/>
       <c r="AZ19" s="92"/>
     </row>
     <row r="20" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="25"/>
-      <c r="B20" s="279"/>
-      <c r="C20" s="280"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="198"/>
-      <c r="K20" s="198"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
-      <c r="N20" s="198"/>
-      <c r="O20" s="198"/>
-      <c r="P20" s="198"/>
-      <c r="Q20" s="198"/>
-      <c r="R20" s="198"/>
-      <c r="S20" s="198"/>
-      <c r="T20" s="198"/>
-      <c r="U20" s="198"/>
-      <c r="V20" s="198"/>
-      <c r="W20" s="198"/>
-      <c r="X20" s="198"/>
-      <c r="Y20" s="199"/>
-      <c r="Z20" s="218"/>
-      <c r="AA20" s="198"/>
-      <c r="AB20" s="198"/>
-      <c r="AC20" s="199"/>
-      <c r="AD20" s="218"/>
-      <c r="AE20" s="198"/>
-      <c r="AF20" s="198"/>
-      <c r="AG20" s="198"/>
-      <c r="AH20" s="198"/>
-      <c r="AI20" s="198"/>
-      <c r="AJ20" s="198"/>
-      <c r="AK20" s="198"/>
-      <c r="AL20" s="198"/>
-      <c r="AM20" s="198"/>
-      <c r="AN20" s="198"/>
-      <c r="AO20" s="198"/>
-      <c r="AP20" s="198"/>
-      <c r="AQ20" s="198"/>
-      <c r="AR20" s="198"/>
-      <c r="AS20" s="198"/>
-      <c r="AT20" s="198"/>
-      <c r="AU20" s="198"/>
-      <c r="AV20" s="198"/>
-      <c r="AW20" s="198"/>
-      <c r="AX20" s="198"/>
-      <c r="AY20" s="199"/>
+      <c r="B20" s="281"/>
+      <c r="C20" s="282"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="185"/>
+      <c r="L20" s="185"/>
+      <c r="M20" s="185"/>
+      <c r="N20" s="185"/>
+      <c r="O20" s="185"/>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="185"/>
+      <c r="R20" s="185"/>
+      <c r="S20" s="185"/>
+      <c r="T20" s="185"/>
+      <c r="U20" s="185"/>
+      <c r="V20" s="185"/>
+      <c r="W20" s="185"/>
+      <c r="X20" s="185"/>
+      <c r="Y20" s="186"/>
+      <c r="Z20" s="184"/>
+      <c r="AA20" s="185"/>
+      <c r="AB20" s="185"/>
+      <c r="AC20" s="186"/>
+      <c r="AD20" s="184"/>
+      <c r="AE20" s="185"/>
+      <c r="AF20" s="185"/>
+      <c r="AG20" s="185"/>
+      <c r="AH20" s="185"/>
+      <c r="AI20" s="185"/>
+      <c r="AJ20" s="185"/>
+      <c r="AK20" s="185"/>
+      <c r="AL20" s="185"/>
+      <c r="AM20" s="185"/>
+      <c r="AN20" s="185"/>
+      <c r="AO20" s="185"/>
+      <c r="AP20" s="185"/>
+      <c r="AQ20" s="185"/>
+      <c r="AR20" s="185"/>
+      <c r="AS20" s="185"/>
+      <c r="AT20" s="185"/>
+      <c r="AU20" s="185"/>
+      <c r="AV20" s="185"/>
+      <c r="AW20" s="185"/>
+      <c r="AX20" s="185"/>
+      <c r="AY20" s="186"/>
       <c r="AZ20" s="92"/>
     </row>
     <row r="21" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="25"/>
-      <c r="B21" s="279"/>
-      <c r="C21" s="280"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
-      <c r="N21" s="198"/>
-      <c r="O21" s="198"/>
-      <c r="P21" s="198"/>
-      <c r="Q21" s="198"/>
-      <c r="R21" s="198"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="198"/>
-      <c r="U21" s="198"/>
-      <c r="V21" s="198"/>
-      <c r="W21" s="198"/>
-      <c r="X21" s="198"/>
-      <c r="Y21" s="199"/>
-      <c r="Z21" s="218"/>
-      <c r="AA21" s="198"/>
-      <c r="AB21" s="198"/>
-      <c r="AC21" s="199"/>
-      <c r="AD21" s="218"/>
-      <c r="AE21" s="198"/>
-      <c r="AF21" s="198"/>
-      <c r="AG21" s="198"/>
-      <c r="AH21" s="198"/>
-      <c r="AI21" s="198"/>
-      <c r="AJ21" s="198"/>
-      <c r="AK21" s="198"/>
-      <c r="AL21" s="198"/>
-      <c r="AM21" s="198"/>
-      <c r="AN21" s="198"/>
-      <c r="AO21" s="198"/>
-      <c r="AP21" s="198"/>
-      <c r="AQ21" s="198"/>
-      <c r="AR21" s="198"/>
-      <c r="AS21" s="198"/>
-      <c r="AT21" s="198"/>
-      <c r="AU21" s="198"/>
-      <c r="AV21" s="198"/>
-      <c r="AW21" s="198"/>
-      <c r="AX21" s="198"/>
-      <c r="AY21" s="199"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="282"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="185"/>
+      <c r="M21" s="185"/>
+      <c r="N21" s="185"/>
+      <c r="O21" s="185"/>
+      <c r="P21" s="185"/>
+      <c r="Q21" s="185"/>
+      <c r="R21" s="185"/>
+      <c r="S21" s="185"/>
+      <c r="T21" s="185"/>
+      <c r="U21" s="185"/>
+      <c r="V21" s="185"/>
+      <c r="W21" s="185"/>
+      <c r="X21" s="185"/>
+      <c r="Y21" s="186"/>
+      <c r="Z21" s="184"/>
+      <c r="AA21" s="185"/>
+      <c r="AB21" s="185"/>
+      <c r="AC21" s="186"/>
+      <c r="AD21" s="184"/>
+      <c r="AE21" s="185"/>
+      <c r="AF21" s="185"/>
+      <c r="AG21" s="185"/>
+      <c r="AH21" s="185"/>
+      <c r="AI21" s="185"/>
+      <c r="AJ21" s="185"/>
+      <c r="AK21" s="185"/>
+      <c r="AL21" s="185"/>
+      <c r="AM21" s="185"/>
+      <c r="AN21" s="185"/>
+      <c r="AO21" s="185"/>
+      <c r="AP21" s="185"/>
+      <c r="AQ21" s="185"/>
+      <c r="AR21" s="185"/>
+      <c r="AS21" s="185"/>
+      <c r="AT21" s="185"/>
+      <c r="AU21" s="185"/>
+      <c r="AV21" s="185"/>
+      <c r="AW21" s="185"/>
+      <c r="AX21" s="185"/>
+      <c r="AY21" s="186"/>
       <c r="AZ21" s="92"/>
     </row>
     <row r="22" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A22" s="25"/>
-      <c r="B22" s="279"/>
-      <c r="C22" s="280"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
-      <c r="N22" s="198"/>
-      <c r="O22" s="198"/>
-      <c r="P22" s="198"/>
-      <c r="Q22" s="198"/>
-      <c r="R22" s="198"/>
-      <c r="S22" s="198"/>
-      <c r="T22" s="198"/>
-      <c r="U22" s="198"/>
-      <c r="V22" s="198"/>
-      <c r="W22" s="198"/>
-      <c r="X22" s="198"/>
-      <c r="Y22" s="199"/>
-      <c r="Z22" s="218"/>
-      <c r="AA22" s="198"/>
-      <c r="AB22" s="198"/>
-      <c r="AC22" s="199"/>
-      <c r="AD22" s="218"/>
-      <c r="AE22" s="198"/>
-      <c r="AF22" s="198"/>
-      <c r="AG22" s="198"/>
-      <c r="AH22" s="198"/>
-      <c r="AI22" s="198"/>
-      <c r="AJ22" s="198"/>
-      <c r="AK22" s="198"/>
-      <c r="AL22" s="198"/>
-      <c r="AM22" s="198"/>
-      <c r="AN22" s="198"/>
-      <c r="AO22" s="198"/>
-      <c r="AP22" s="198"/>
-      <c r="AQ22" s="198"/>
-      <c r="AR22" s="198"/>
-      <c r="AS22" s="198"/>
-      <c r="AT22" s="198"/>
-      <c r="AU22" s="198"/>
-      <c r="AV22" s="198"/>
-      <c r="AW22" s="198"/>
-      <c r="AX22" s="198"/>
-      <c r="AY22" s="199"/>
+      <c r="B22" s="281"/>
+      <c r="C22" s="282"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="185"/>
+      <c r="L22" s="185"/>
+      <c r="M22" s="185"/>
+      <c r="N22" s="185"/>
+      <c r="O22" s="185"/>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="185"/>
+      <c r="R22" s="185"/>
+      <c r="S22" s="185"/>
+      <c r="T22" s="185"/>
+      <c r="U22" s="185"/>
+      <c r="V22" s="185"/>
+      <c r="W22" s="185"/>
+      <c r="X22" s="185"/>
+      <c r="Y22" s="186"/>
+      <c r="Z22" s="184"/>
+      <c r="AA22" s="185"/>
+      <c r="AB22" s="185"/>
+      <c r="AC22" s="186"/>
+      <c r="AD22" s="184"/>
+      <c r="AE22" s="185"/>
+      <c r="AF22" s="185"/>
+      <c r="AG22" s="185"/>
+      <c r="AH22" s="185"/>
+      <c r="AI22" s="185"/>
+      <c r="AJ22" s="185"/>
+      <c r="AK22" s="185"/>
+      <c r="AL22" s="185"/>
+      <c r="AM22" s="185"/>
+      <c r="AN22" s="185"/>
+      <c r="AO22" s="185"/>
+      <c r="AP22" s="185"/>
+      <c r="AQ22" s="185"/>
+      <c r="AR22" s="185"/>
+      <c r="AS22" s="185"/>
+      <c r="AT22" s="185"/>
+      <c r="AU22" s="185"/>
+      <c r="AV22" s="185"/>
+      <c r="AW22" s="185"/>
+      <c r="AX22" s="185"/>
+      <c r="AY22" s="186"/>
       <c r="AZ22" s="92"/>
     </row>
     <row r="23" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="279"/>
-      <c r="C23" s="280"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="198"/>
-      <c r="N23" s="198"/>
-      <c r="O23" s="198"/>
-      <c r="P23" s="198"/>
-      <c r="Q23" s="198"/>
-      <c r="R23" s="198"/>
-      <c r="S23" s="198"/>
-      <c r="T23" s="198"/>
-      <c r="U23" s="198"/>
-      <c r="V23" s="198"/>
-      <c r="W23" s="198"/>
-      <c r="X23" s="198"/>
-      <c r="Y23" s="199"/>
-      <c r="Z23" s="218"/>
-      <c r="AA23" s="198"/>
-      <c r="AB23" s="198"/>
-      <c r="AC23" s="199"/>
-      <c r="AD23" s="218"/>
-      <c r="AE23" s="198"/>
-      <c r="AF23" s="198"/>
-      <c r="AG23" s="198"/>
-      <c r="AH23" s="198"/>
-      <c r="AI23" s="198"/>
-      <c r="AJ23" s="198"/>
-      <c r="AK23" s="198"/>
-      <c r="AL23" s="198"/>
-      <c r="AM23" s="198"/>
-      <c r="AN23" s="198"/>
-      <c r="AO23" s="198"/>
-      <c r="AP23" s="198"/>
-      <c r="AQ23" s="198"/>
-      <c r="AR23" s="198"/>
-      <c r="AS23" s="198"/>
-      <c r="AT23" s="198"/>
-      <c r="AU23" s="198"/>
-      <c r="AV23" s="198"/>
-      <c r="AW23" s="198"/>
-      <c r="AX23" s="198"/>
-      <c r="AY23" s="199"/>
+      <c r="B23" s="281"/>
+      <c r="C23" s="282"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="185"/>
+      <c r="N23" s="185"/>
+      <c r="O23" s="185"/>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="185"/>
+      <c r="R23" s="185"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="185"/>
+      <c r="U23" s="185"/>
+      <c r="V23" s="185"/>
+      <c r="W23" s="185"/>
+      <c r="X23" s="185"/>
+      <c r="Y23" s="186"/>
+      <c r="Z23" s="184"/>
+      <c r="AA23" s="185"/>
+      <c r="AB23" s="185"/>
+      <c r="AC23" s="186"/>
+      <c r="AD23" s="184"/>
+      <c r="AE23" s="185"/>
+      <c r="AF23" s="185"/>
+      <c r="AG23" s="185"/>
+      <c r="AH23" s="185"/>
+      <c r="AI23" s="185"/>
+      <c r="AJ23" s="185"/>
+      <c r="AK23" s="185"/>
+      <c r="AL23" s="185"/>
+      <c r="AM23" s="185"/>
+      <c r="AN23" s="185"/>
+      <c r="AO23" s="185"/>
+      <c r="AP23" s="185"/>
+      <c r="AQ23" s="185"/>
+      <c r="AR23" s="185"/>
+      <c r="AS23" s="185"/>
+      <c r="AT23" s="185"/>
+      <c r="AU23" s="185"/>
+      <c r="AV23" s="185"/>
+      <c r="AW23" s="185"/>
+      <c r="AX23" s="185"/>
+      <c r="AY23" s="186"/>
       <c r="AZ23" s="92"/>
     </row>
     <row r="24" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A24" s="25"/>
-      <c r="B24" s="279"/>
-      <c r="C24" s="280"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="198"/>
-      <c r="P24" s="198"/>
-      <c r="Q24" s="198"/>
-      <c r="R24" s="198"/>
-      <c r="S24" s="198"/>
-      <c r="T24" s="198"/>
-      <c r="U24" s="198"/>
-      <c r="V24" s="198"/>
-      <c r="W24" s="198"/>
-      <c r="X24" s="198"/>
-      <c r="Y24" s="199"/>
-      <c r="Z24" s="218"/>
-      <c r="AA24" s="198"/>
-      <c r="AB24" s="198"/>
-      <c r="AC24" s="199"/>
-      <c r="AD24" s="218"/>
-      <c r="AE24" s="198"/>
-      <c r="AF24" s="198"/>
-      <c r="AG24" s="198"/>
-      <c r="AH24" s="198"/>
-      <c r="AI24" s="198"/>
-      <c r="AJ24" s="198"/>
-      <c r="AK24" s="198"/>
-      <c r="AL24" s="198"/>
-      <c r="AM24" s="198"/>
-      <c r="AN24" s="198"/>
-      <c r="AO24" s="198"/>
-      <c r="AP24" s="198"/>
-      <c r="AQ24" s="198"/>
-      <c r="AR24" s="198"/>
-      <c r="AS24" s="198"/>
-      <c r="AT24" s="198"/>
-      <c r="AU24" s="198"/>
-      <c r="AV24" s="198"/>
-      <c r="AW24" s="198"/>
-      <c r="AX24" s="198"/>
-      <c r="AY24" s="199"/>
+      <c r="B24" s="281"/>
+      <c r="C24" s="282"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="185"/>
+      <c r="M24" s="185"/>
+      <c r="N24" s="185"/>
+      <c r="O24" s="185"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="185"/>
+      <c r="R24" s="185"/>
+      <c r="S24" s="185"/>
+      <c r="T24" s="185"/>
+      <c r="U24" s="185"/>
+      <c r="V24" s="185"/>
+      <c r="W24" s="185"/>
+      <c r="X24" s="185"/>
+      <c r="Y24" s="186"/>
+      <c r="Z24" s="184"/>
+      <c r="AA24" s="185"/>
+      <c r="AB24" s="185"/>
+      <c r="AC24" s="186"/>
+      <c r="AD24" s="184"/>
+      <c r="AE24" s="185"/>
+      <c r="AF24" s="185"/>
+      <c r="AG24" s="185"/>
+      <c r="AH24" s="185"/>
+      <c r="AI24" s="185"/>
+      <c r="AJ24" s="185"/>
+      <c r="AK24" s="185"/>
+      <c r="AL24" s="185"/>
+      <c r="AM24" s="185"/>
+      <c r="AN24" s="185"/>
+      <c r="AO24" s="185"/>
+      <c r="AP24" s="185"/>
+      <c r="AQ24" s="185"/>
+      <c r="AR24" s="185"/>
+      <c r="AS24" s="185"/>
+      <c r="AT24" s="185"/>
+      <c r="AU24" s="185"/>
+      <c r="AV24" s="185"/>
+      <c r="AW24" s="185"/>
+      <c r="AX24" s="185"/>
+      <c r="AY24" s="186"/>
       <c r="AZ24" s="92"/>
     </row>
     <row r="25" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="279"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="198"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="198"/>
-      <c r="P25" s="198"/>
-      <c r="Q25" s="198"/>
-      <c r="R25" s="198"/>
-      <c r="S25" s="198"/>
-      <c r="T25" s="198"/>
-      <c r="U25" s="198"/>
-      <c r="V25" s="198"/>
-      <c r="W25" s="198"/>
-      <c r="X25" s="198"/>
-      <c r="Y25" s="199"/>
-      <c r="Z25" s="218"/>
-      <c r="AA25" s="198"/>
-      <c r="AB25" s="198"/>
-      <c r="AC25" s="199"/>
-      <c r="AD25" s="218"/>
-      <c r="AE25" s="198"/>
-      <c r="AF25" s="198"/>
-      <c r="AG25" s="198"/>
-      <c r="AH25" s="198"/>
-      <c r="AI25" s="198"/>
-      <c r="AJ25" s="198"/>
-      <c r="AK25" s="198"/>
-      <c r="AL25" s="198"/>
-      <c r="AM25" s="198"/>
-      <c r="AN25" s="198"/>
-      <c r="AO25" s="198"/>
-      <c r="AP25" s="198"/>
-      <c r="AQ25" s="198"/>
-      <c r="AR25" s="198"/>
-      <c r="AS25" s="198"/>
-      <c r="AT25" s="198"/>
-      <c r="AU25" s="198"/>
-      <c r="AV25" s="198"/>
-      <c r="AW25" s="198"/>
-      <c r="AX25" s="198"/>
-      <c r="AY25" s="199"/>
+      <c r="B25" s="281"/>
+      <c r="C25" s="282"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="185"/>
+      <c r="L25" s="185"/>
+      <c r="M25" s="185"/>
+      <c r="N25" s="185"/>
+      <c r="O25" s="185"/>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="185"/>
+      <c r="R25" s="185"/>
+      <c r="S25" s="185"/>
+      <c r="T25" s="185"/>
+      <c r="U25" s="185"/>
+      <c r="V25" s="185"/>
+      <c r="W25" s="185"/>
+      <c r="X25" s="185"/>
+      <c r="Y25" s="186"/>
+      <c r="Z25" s="184"/>
+      <c r="AA25" s="185"/>
+      <c r="AB25" s="185"/>
+      <c r="AC25" s="186"/>
+      <c r="AD25" s="184"/>
+      <c r="AE25" s="185"/>
+      <c r="AF25" s="185"/>
+      <c r="AG25" s="185"/>
+      <c r="AH25" s="185"/>
+      <c r="AI25" s="185"/>
+      <c r="AJ25" s="185"/>
+      <c r="AK25" s="185"/>
+      <c r="AL25" s="185"/>
+      <c r="AM25" s="185"/>
+      <c r="AN25" s="185"/>
+      <c r="AO25" s="185"/>
+      <c r="AP25" s="185"/>
+      <c r="AQ25" s="185"/>
+      <c r="AR25" s="185"/>
+      <c r="AS25" s="185"/>
+      <c r="AT25" s="185"/>
+      <c r="AU25" s="185"/>
+      <c r="AV25" s="185"/>
+      <c r="AW25" s="185"/>
+      <c r="AX25" s="185"/>
+      <c r="AY25" s="186"/>
       <c r="AZ25" s="92"/>
     </row>
     <row r="26" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A26" s="25"/>
-      <c r="B26" s="279"/>
-      <c r="C26" s="280"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="198"/>
-      <c r="K26" s="198"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
-      <c r="N26" s="198"/>
-      <c r="O26" s="198"/>
-      <c r="P26" s="198"/>
-      <c r="Q26" s="198"/>
-      <c r="R26" s="198"/>
-      <c r="S26" s="198"/>
-      <c r="T26" s="198"/>
-      <c r="U26" s="198"/>
-      <c r="V26" s="198"/>
-      <c r="W26" s="198"/>
-      <c r="X26" s="198"/>
-      <c r="Y26" s="199"/>
-      <c r="Z26" s="218"/>
-      <c r="AA26" s="198"/>
-      <c r="AB26" s="198"/>
-      <c r="AC26" s="199"/>
-      <c r="AD26" s="218"/>
-      <c r="AE26" s="198"/>
-      <c r="AF26" s="198"/>
-      <c r="AG26" s="198"/>
-      <c r="AH26" s="198"/>
-      <c r="AI26" s="198"/>
-      <c r="AJ26" s="198"/>
-      <c r="AK26" s="198"/>
-      <c r="AL26" s="198"/>
-      <c r="AM26" s="198"/>
-      <c r="AN26" s="198"/>
-      <c r="AO26" s="198"/>
-      <c r="AP26" s="198"/>
-      <c r="AQ26" s="198"/>
-      <c r="AR26" s="198"/>
-      <c r="AS26" s="198"/>
-      <c r="AT26" s="198"/>
-      <c r="AU26" s="198"/>
-      <c r="AV26" s="198"/>
-      <c r="AW26" s="198"/>
-      <c r="AX26" s="198"/>
-      <c r="AY26" s="199"/>
+      <c r="B26" s="281"/>
+      <c r="C26" s="282"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="185"/>
+      <c r="M26" s="185"/>
+      <c r="N26" s="185"/>
+      <c r="O26" s="185"/>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="185"/>
+      <c r="R26" s="185"/>
+      <c r="S26" s="185"/>
+      <c r="T26" s="185"/>
+      <c r="U26" s="185"/>
+      <c r="V26" s="185"/>
+      <c r="W26" s="185"/>
+      <c r="X26" s="185"/>
+      <c r="Y26" s="186"/>
+      <c r="Z26" s="184"/>
+      <c r="AA26" s="185"/>
+      <c r="AB26" s="185"/>
+      <c r="AC26" s="186"/>
+      <c r="AD26" s="184"/>
+      <c r="AE26" s="185"/>
+      <c r="AF26" s="185"/>
+      <c r="AG26" s="185"/>
+      <c r="AH26" s="185"/>
+      <c r="AI26" s="185"/>
+      <c r="AJ26" s="185"/>
+      <c r="AK26" s="185"/>
+      <c r="AL26" s="185"/>
+      <c r="AM26" s="185"/>
+      <c r="AN26" s="185"/>
+      <c r="AO26" s="185"/>
+      <c r="AP26" s="185"/>
+      <c r="AQ26" s="185"/>
+      <c r="AR26" s="185"/>
+      <c r="AS26" s="185"/>
+      <c r="AT26" s="185"/>
+      <c r="AU26" s="185"/>
+      <c r="AV26" s="185"/>
+      <c r="AW26" s="185"/>
+      <c r="AX26" s="185"/>
+      <c r="AY26" s="186"/>
       <c r="AZ26" s="92"/>
     </row>
     <row r="27" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A27" s="25"/>
-      <c r="B27" s="292"/>
-      <c r="C27" s="293"/>
-      <c r="D27" s="238"/>
-      <c r="E27" s="239"/>
-      <c r="F27" s="239"/>
-      <c r="G27" s="239"/>
-      <c r="H27" s="239"/>
-      <c r="I27" s="239"/>
-      <c r="J27" s="239"/>
-      <c r="K27" s="239"/>
-      <c r="L27" s="239"/>
-      <c r="M27" s="239"/>
-      <c r="N27" s="239"/>
-      <c r="O27" s="239"/>
-      <c r="P27" s="239"/>
-      <c r="Q27" s="239"/>
-      <c r="R27" s="239"/>
-      <c r="S27" s="239"/>
-      <c r="T27" s="239"/>
-      <c r="U27" s="239"/>
-      <c r="V27" s="239"/>
-      <c r="W27" s="239"/>
-      <c r="X27" s="239"/>
-      <c r="Y27" s="240"/>
-      <c r="Z27" s="238"/>
-      <c r="AA27" s="239"/>
-      <c r="AB27" s="239"/>
-      <c r="AC27" s="240"/>
-      <c r="AD27" s="238"/>
-      <c r="AE27" s="239"/>
-      <c r="AF27" s="239"/>
-      <c r="AG27" s="239"/>
-      <c r="AH27" s="239"/>
-      <c r="AI27" s="239"/>
-      <c r="AJ27" s="239"/>
-      <c r="AK27" s="239"/>
-      <c r="AL27" s="239"/>
-      <c r="AM27" s="239"/>
-      <c r="AN27" s="239"/>
-      <c r="AO27" s="239"/>
-      <c r="AP27" s="239"/>
-      <c r="AQ27" s="239"/>
-      <c r="AR27" s="239"/>
-      <c r="AS27" s="239"/>
-      <c r="AT27" s="239"/>
-      <c r="AU27" s="239"/>
-      <c r="AV27" s="239"/>
-      <c r="AW27" s="239"/>
-      <c r="AX27" s="239"/>
-      <c r="AY27" s="240"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="280"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="203"/>
+      <c r="L27" s="203"/>
+      <c r="M27" s="203"/>
+      <c r="N27" s="203"/>
+      <c r="O27" s="203"/>
+      <c r="P27" s="203"/>
+      <c r="Q27" s="203"/>
+      <c r="R27" s="203"/>
+      <c r="S27" s="203"/>
+      <c r="T27" s="203"/>
+      <c r="U27" s="203"/>
+      <c r="V27" s="203"/>
+      <c r="W27" s="203"/>
+      <c r="X27" s="203"/>
+      <c r="Y27" s="204"/>
+      <c r="Z27" s="202"/>
+      <c r="AA27" s="203"/>
+      <c r="AB27" s="203"/>
+      <c r="AC27" s="204"/>
+      <c r="AD27" s="202"/>
+      <c r="AE27" s="203"/>
+      <c r="AF27" s="203"/>
+      <c r="AG27" s="203"/>
+      <c r="AH27" s="203"/>
+      <c r="AI27" s="203"/>
+      <c r="AJ27" s="203"/>
+      <c r="AK27" s="203"/>
+      <c r="AL27" s="203"/>
+      <c r="AM27" s="203"/>
+      <c r="AN27" s="203"/>
+      <c r="AO27" s="203"/>
+      <c r="AP27" s="203"/>
+      <c r="AQ27" s="203"/>
+      <c r="AR27" s="203"/>
+      <c r="AS27" s="203"/>
+      <c r="AT27" s="203"/>
+      <c r="AU27" s="203"/>
+      <c r="AV27" s="203"/>
+      <c r="AW27" s="203"/>
+      <c r="AX27" s="203"/>
+      <c r="AY27" s="204"/>
       <c r="AZ27" s="92"/>
     </row>
     <row r="28" spans="1:52" s="17" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
@@ -26025,66 +26024,23 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Y27"/>
-    <mergeCell ref="Z27:AC27"/>
-    <mergeCell ref="AD27:AY27"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="AD25:AY25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Y26"/>
-    <mergeCell ref="Z26:AC26"/>
-    <mergeCell ref="AD26:AY26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:Y25"/>
-    <mergeCell ref="Z15:AC15"/>
-    <mergeCell ref="AD15:AY15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Y16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AD16:AY16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Y15"/>
-    <mergeCell ref="Z22:AC22"/>
-    <mergeCell ref="AD22:AY22"/>
-    <mergeCell ref="Z20:AC20"/>
-    <mergeCell ref="AD20:AY20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:Y21"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="AD21:AY21"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="AD13:AY13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Y14"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AD14:AY14"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="AD10:AY10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:Y11"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="AD11:AY11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Y13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:Y12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="AD12:AY12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Y10"/>
-    <mergeCell ref="AD7:AY7"/>
-    <mergeCell ref="D8:Y8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AD8:AY8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AY9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:Y7"/>
-    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:Y24"/>
     <mergeCell ref="Z24:AC24"/>
@@ -26109,23 +26065,66 @@
     <mergeCell ref="D23:Y23"/>
     <mergeCell ref="Z23:AC23"/>
     <mergeCell ref="AD23:AY23"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="AD7:AY7"/>
+    <mergeCell ref="D8:Y8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="AD8:AY8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AY9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:Y7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD13:AY13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Y14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AD14:AY14"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AY10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:Y11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="AD11:AY11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Y13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="AD12:AY12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Y10"/>
+    <mergeCell ref="Z15:AC15"/>
+    <mergeCell ref="AD15:AY15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Y16"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AD16:AY16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Y15"/>
+    <mergeCell ref="Z22:AC22"/>
+    <mergeCell ref="AD22:AY22"/>
+    <mergeCell ref="Z20:AC20"/>
+    <mergeCell ref="AD20:AY20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:Y21"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="AD21:AY21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Y27"/>
+    <mergeCell ref="Z27:AC27"/>
+    <mergeCell ref="AD27:AY27"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="AD25:AY25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Y26"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="AD26:AY26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:Y25"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -26157,201 +26156,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="187" t="str">
+      <c r="A1" s="231" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>SQL</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="206" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="206"/>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="208" t="str">
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="228" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="206" t="s">
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="206"/>
-      <c r="AJ1" s="206"/>
-      <c r="AK1" s="206"/>
-      <c r="AL1" s="206"/>
-      <c r="AM1" s="206" t="s">
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="206"/>
-      <c r="AO1" s="206"/>
-      <c r="AP1" s="206"/>
-      <c r="AQ1" s="206"/>
-      <c r="AR1" s="206"/>
-      <c r="AS1" s="206" t="s">
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="206"/>
-      <c r="AU1" s="206"/>
-      <c r="AV1" s="206"/>
-      <c r="AW1" s="206"/>
-      <c r="AX1" s="206" t="s">
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="206"/>
+      <c r="AY1" s="229"/>
       <c r="AZ1" s="244"/>
     </row>
     <row r="2" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="207" t="s">
+      <c r="A2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="210" t="str">
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="220" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="211">
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221">
         <v>42591</v>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
+      <c r="AK2" s="221"/>
+      <c r="AL2" s="221"/>
       <c r="AM2" s="250" t="s">
         <v>223</v>
       </c>
-      <c r="AN2" s="210"/>
-      <c r="AO2" s="210"/>
-      <c r="AP2" s="210"/>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="216"/>
-      <c r="AT2" s="216"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="210"/>
-      <c r="AY2" s="210"/>
-      <c r="AZ2" s="214"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="220"/>
+      <c r="AQ2" s="220"/>
+      <c r="AR2" s="220"/>
+      <c r="AS2" s="226"/>
+      <c r="AT2" s="226"/>
+      <c r="AU2" s="226"/>
+      <c r="AV2" s="226"/>
+      <c r="AW2" s="226"/>
+      <c r="AX2" s="220"/>
+      <c r="AY2" s="220"/>
+      <c r="AZ2" s="224"/>
     </row>
     <row r="3" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="192" t="s">
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="193" t="str">
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="219" t="str">
         <f>設定情報!$C$5</f>
         <v>ユーザ一覧画面</v>
       </c>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="212"/>
-      <c r="AK3" s="212"/>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="193"/>
-      <c r="AO3" s="193"/>
-      <c r="AP3" s="193"/>
-      <c r="AQ3" s="193"/>
-      <c r="AR3" s="193"/>
-      <c r="AS3" s="217"/>
-      <c r="AT3" s="217"/>
-      <c r="AU3" s="217"/>
-      <c r="AV3" s="217"/>
-      <c r="AW3" s="217"/>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="193"/>
-      <c r="AZ3" s="215"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="222"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="222"/>
+      <c r="AJ3" s="222"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="219"/>
+      <c r="AN3" s="219"/>
+      <c r="AO3" s="219"/>
+      <c r="AP3" s="219"/>
+      <c r="AQ3" s="219"/>
+      <c r="AR3" s="219"/>
+      <c r="AS3" s="227"/>
+      <c r="AT3" s="227"/>
+      <c r="AU3" s="227"/>
+      <c r="AV3" s="227"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="219"/>
+      <c r="AY3" s="219"/>
+      <c r="AZ3" s="225"/>
     </row>
     <row r="4" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="246" t="s">
@@ -29298,6 +29297,19 @@
     <row r="59" spans="1:52" s="13" customFormat="1" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="N3:R3"/>
@@ -29307,19 +29319,6 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
